--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{826B8ED1-137D-4CE7-BC6A-94B88871ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA67464-0816-4E28-BD53-7679D620A075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="141">
   <si>
     <t>Table Admin:</t>
   </si>
@@ -128,9 +120,6 @@
     <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
-    <t>Table User:</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -236,9 +225,6 @@
     <t>bit</t>
   </si>
   <si>
-    <t>PK - FK(user.user_id)</t>
-  </si>
-  <si>
     <t>PK -FK(skills.skill_id)</t>
   </si>
   <si>
@@ -264,6 +250,204 @@
   </si>
   <si>
     <t>mission_end_date</t>
+  </si>
+  <si>
+    <t>mission_type</t>
+  </si>
+  <si>
+    <t>total_seats</t>
+  </si>
+  <si>
+    <t>registration_deadline</t>
+  </si>
+  <si>
+    <t>Table mission_theme</t>
+  </si>
+  <si>
+    <t>mission_theme_id</t>
+  </si>
+  <si>
+    <t>AUTO-INCREMENT</t>
+  </si>
+  <si>
+    <t>mission_theme_name</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>FK(mission_theme.mission_theme_id)</t>
+  </si>
+  <si>
+    <t>Table mission_application</t>
+  </si>
+  <si>
+    <t>Table mission_images</t>
+  </si>
+  <si>
+    <t>FK(mission.mission_id)</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Table images</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>AUTO INCREMENT</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>PK - FK(images.image_id)</t>
+  </si>
+  <si>
+    <t>Table documents</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Table mission_documents</t>
+  </si>
+  <si>
+    <t>filestream</t>
+  </si>
+  <si>
+    <t>Table video_urls</t>
+  </si>
+  <si>
+    <t>video_url_id</t>
+  </si>
+  <si>
+    <t>video_url</t>
+  </si>
+  <si>
+    <t>Table mission_video_urls</t>
+  </si>
+  <si>
+    <t>PK - FK(video_urls.video_url_id)</t>
+  </si>
+  <si>
+    <t>mission_availability</t>
+  </si>
+  <si>
+    <t>Table stories</t>
+  </si>
+  <si>
+    <t>story_id</t>
+  </si>
+  <si>
+    <t>story_title</t>
+  </si>
+  <si>
+    <t>story_date</t>
+  </si>
+  <si>
+    <t>story_description</t>
+  </si>
+  <si>
+    <t>FK(video_urls.video_url_id)</t>
+  </si>
+  <si>
+    <t>Table story_images</t>
+  </si>
+  <si>
+    <t>Table Users:</t>
+  </si>
+  <si>
+    <t>PK - FK(users.user_id)</t>
+  </si>
+  <si>
+    <t>FK(users.user_id)</t>
+  </si>
+  <si>
+    <t>Table volunteering_hours</t>
+  </si>
+  <si>
+    <t>date_volunteered</t>
+  </si>
+  <si>
+    <t>hours_volunteered</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>minutes_volunteered</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Table volunteering_goals</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>Table contact_us</t>
+  </si>
+  <si>
+    <t>contact_us_id</t>
+  </si>
+  <si>
+    <t>contact_us_name</t>
+  </si>
+  <si>
+    <t>contact_us_email</t>
+  </si>
+  <si>
+    <t>contact_us_subject</t>
+  </si>
+  <si>
+    <t>contact_us_message</t>
+  </si>
+  <si>
+    <t>Table banners</t>
+  </si>
+  <si>
+    <t>banner_id</t>
+  </si>
+  <si>
+    <t>FK(images.image_id)</t>
+  </si>
+  <si>
+    <t>banner_title</t>
+  </si>
+  <si>
+    <t>banner_description</t>
+  </si>
+  <si>
+    <t>Table cms_pages</t>
+  </si>
+  <si>
+    <t>cms_page_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNSIGNED </t>
+  </si>
+  <si>
+    <t>cms_page_title</t>
+  </si>
+  <si>
+    <t>cms_page_description</t>
+  </si>
+  <si>
+    <t>cms_page_slug</t>
+  </si>
+  <si>
+    <t>cms_page_status</t>
   </si>
 </sst>
 </file>
@@ -624,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +821,7 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,12 +1013,12 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -849,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -911,7 +1095,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -945,10 +1129,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -962,10 +1146,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -976,7 +1160,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -993,7 +1177,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1002,7 +1186,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -1010,7 +1194,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1031,12 +1215,12 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1057,15 +1241,15 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1076,7 +1260,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1093,7 +1277,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1110,13 +1294,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1172,15 +1356,15 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1189,7 +1373,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -1200,13 +1384,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1217,18 +1401,15 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1236,19 +1417,25 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -1256,33 +1443,33 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,114 +1477,114 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -1405,44 +1592,41 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="s">
-        <v>59</v>
-      </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
         <v>65</v>
       </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54">
-        <v>30</v>
+      <c r="C54" t="s">
+        <v>48</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
-      <c r="E54" t="s">
-        <v>12</v>
+      <c r="E54">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -1451,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
@@ -1462,13 +1646,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -1479,75 +1660,58 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>42</v>
+      <c r="E59">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <v>255</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -1558,24 +1722,1153 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>30</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136">
+        <v>128</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137">
+        <v>200</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145">
+        <v>200</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>90</v>
+      </c>
+      <c r="G149" t="s">
+        <v>136</v>
+      </c>
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150">
+        <v>300</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>128</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA67464-0816-4E28-BD53-7679D620A075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B827F08-3588-460F-9CEA-6E1B12F5274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="141">
-  <si>
-    <t>Table Admin:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="173">
   <si>
     <t>Field</t>
   </si>
@@ -84,9 +81,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>admin_avatar</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>timestapoffset</t>
-  </si>
-  <si>
     <t>nvarchar</t>
   </si>
   <si>
@@ -174,24 +165,15 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>Table skills</t>
-  </si>
-  <si>
     <t>smallint</t>
   </si>
   <si>
-    <t>Table user_skills</t>
-  </si>
-  <si>
     <t>skill_id</t>
   </si>
   <si>
     <t>skill_name</t>
   </si>
   <si>
-    <t>Table mission_skills</t>
-  </si>
-  <si>
     <t>mission_id</t>
   </si>
   <si>
@@ -225,15 +207,6 @@
     <t>bit</t>
   </si>
   <si>
-    <t>PK -FK(skills.skill_id)</t>
-  </si>
-  <si>
-    <t>PK - FK(skills.skill_id)</t>
-  </si>
-  <si>
-    <t>PK - FK(mission.mission_id)</t>
-  </si>
-  <si>
     <t>mission_country</t>
   </si>
   <si>
@@ -273,129 +246,45 @@
     <t>mission_theme_name</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>FK(mission_theme.mission_theme_id)</t>
   </si>
   <si>
     <t>Table mission_application</t>
   </si>
   <si>
-    <t>Table mission_images</t>
-  </si>
-  <si>
     <t>FK(mission.mission_id)</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Table images</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
     <t>AUTO INCREMENT</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>blob</t>
-  </si>
-  <si>
-    <t>PK - FK(images.image_id)</t>
-  </si>
-  <si>
-    <t>Table documents</t>
-  </si>
-  <si>
-    <t>document_id</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
     <t>Table mission_documents</t>
   </si>
   <si>
-    <t>filestream</t>
-  </si>
-  <si>
-    <t>Table video_urls</t>
-  </si>
-  <si>
     <t>video_url_id</t>
   </si>
   <si>
     <t>video_url</t>
   </si>
   <si>
-    <t>Table mission_video_urls</t>
-  </si>
-  <si>
-    <t>PK - FK(video_urls.video_url_id)</t>
-  </si>
-  <si>
     <t>mission_availability</t>
   </si>
   <si>
-    <t>Table stories</t>
-  </si>
-  <si>
     <t>story_id</t>
   </si>
   <si>
     <t>story_title</t>
   </si>
   <si>
-    <t>story_date</t>
-  </si>
-  <si>
     <t>story_description</t>
   </si>
   <si>
-    <t>FK(video_urls.video_url_id)</t>
-  </si>
-  <si>
-    <t>Table story_images</t>
-  </si>
-  <si>
-    <t>Table Users:</t>
-  </si>
-  <si>
-    <t>PK - FK(users.user_id)</t>
-  </si>
-  <si>
-    <t>FK(users.user_id)</t>
-  </si>
-  <si>
-    <t>Table volunteering_hours</t>
-  </si>
-  <si>
     <t>date_volunteered</t>
   </si>
   <si>
-    <t>hours_volunteered</t>
-  </si>
-  <si>
     <t>tinyint</t>
   </si>
   <si>
-    <t>minutes_volunteered</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>Table volunteering_goals</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
     <t>Table contact_us</t>
   </si>
   <si>
@@ -420,15 +309,6 @@
     <t>banner_id</t>
   </si>
   <si>
-    <t>FK(images.image_id)</t>
-  </si>
-  <si>
-    <t>banner_title</t>
-  </si>
-  <si>
-    <t>banner_description</t>
-  </si>
-  <si>
     <t>Table cms_pages</t>
   </si>
   <si>
@@ -448,6 +328,222 @@
   </si>
   <si>
     <t>cms_page_status</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>timestampoffset</t>
+  </si>
+  <si>
+    <t>Table admin</t>
+  </si>
+  <si>
+    <t>Table user</t>
+  </si>
+  <si>
+    <t>banner_image</t>
+  </si>
+  <si>
+    <t>banner_text</t>
+  </si>
+  <si>
+    <t>Table comment</t>
+  </si>
+  <si>
+    <t>comment_id</t>
+  </si>
+  <si>
+    <t>FK(user.user_id)</t>
+  </si>
+  <si>
+    <t>approval_status</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>banner_sort_order</t>
+  </si>
+  <si>
+    <t>Table favourite_mission</t>
+  </si>
+  <si>
+    <t>favourite_mission_id</t>
+  </si>
+  <si>
+    <t>mission_short_description</t>
+  </si>
+  <si>
+    <t>mission_application_id</t>
+  </si>
+  <si>
+    <t>applied_at</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>mission_document_id</t>
+  </si>
+  <si>
+    <t>mission_document_name</t>
+  </si>
+  <si>
+    <t>mission_document_type</t>
+  </si>
+  <si>
+    <t>mission_document_path</t>
+  </si>
+  <si>
+    <t>Table mission_invite</t>
+  </si>
+  <si>
+    <t>mission_invite_id</t>
+  </si>
+  <si>
+    <t>from_user_id</t>
+  </si>
+  <si>
+    <t>to_user_id</t>
+  </si>
+  <si>
+    <t>Table mission_media</t>
+  </si>
+  <si>
+    <t>mission_media_id</t>
+  </si>
+  <si>
+    <t>mission_media_name</t>
+  </si>
+  <si>
+    <t>mission_media_type</t>
+  </si>
+  <si>
+    <t>mission_media_path</t>
+  </si>
+  <si>
+    <t>Table mission_rating</t>
+  </si>
+  <si>
+    <t>mission_rating_id</t>
+  </si>
+  <si>
+    <t>mission_rating</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>mission_skill_id</t>
+  </si>
+  <si>
+    <t>Table password_reset</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Table skill</t>
+  </si>
+  <si>
+    <t>Table mission_skill</t>
+  </si>
+  <si>
+    <t>FK(skill.skill_id)</t>
+  </si>
+  <si>
+    <t>Table story</t>
+  </si>
+  <si>
+    <t>published_at</t>
+  </si>
+  <si>
+    <t>Table user_skill</t>
+  </si>
+  <si>
+    <t>user_skill_id</t>
+  </si>
+  <si>
+    <t>Table video_url</t>
+  </si>
+  <si>
+    <t>Table mission_video_url</t>
+  </si>
+  <si>
+    <t>mission_video_url_id</t>
+  </si>
+  <si>
+    <t>Table story_video_url</t>
+  </si>
+  <si>
+    <t>story_video_url_id</t>
+  </si>
+  <si>
+    <t>FK(story.mission_id)</t>
+  </si>
+  <si>
+    <t>FK(video_url.video_url_id)</t>
+  </si>
+  <si>
+    <t>story_media_id</t>
+  </si>
+  <si>
+    <t>story_media_name</t>
+  </si>
+  <si>
+    <t>story_media_type</t>
+  </si>
+  <si>
+    <t>story_media_path</t>
+  </si>
+  <si>
+    <t>FK(story.story_id)</t>
+  </si>
+  <si>
+    <t>Table story_media</t>
+  </si>
+  <si>
+    <t>Table story_invite</t>
+  </si>
+  <si>
+    <t>story_invite_id</t>
+  </si>
+  <si>
+    <t>Table mission_goal</t>
+  </si>
+  <si>
+    <t>mission_goal_id</t>
+  </si>
+  <si>
+    <t>mission_goal_objective</t>
+  </si>
+  <si>
+    <t>mission_goal_value</t>
+  </si>
+  <si>
+    <t>Table mission_timesheet</t>
+  </si>
+  <si>
+    <t>mission_timesheet_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time_volunteered</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>PENDING, APPROVED, DECLINED</t>
+  </si>
+  <si>
+    <t>APPROVED, PENDING, DECLINED</t>
   </si>
 </sst>
 </file>
@@ -471,12 +567,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -491,9 +593,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +904,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,16 +912,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
@@ -826,220 +931,220 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>2048</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>255</v>
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1047,16 +1152,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,1414 +1169,1500 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>128</v>
+        <v>2048</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>2048</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
         <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>255</v>
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
         <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>78</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
+      <c r="A57" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>47</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" t="s">
-        <v>41</v>
+      <c r="A65" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" t="s">
-        <v>27</v>
+      <c r="A73" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>88</v>
+      <c r="A81" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
         <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" t="s">
-        <v>90</v>
-      </c>
-      <c r="G90" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" t="s">
-        <v>90</v>
-      </c>
-      <c r="G98" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99">
-        <v>255</v>
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>102</v>
+      <c r="A101" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>76</v>
       </c>
       <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
         <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>172</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" t="s">
-        <v>90</v>
-      </c>
-      <c r="G106" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" t="s">
-        <v>12</v>
+      <c r="A111" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>76</v>
       </c>
       <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
         <v>14</v>
       </c>
-      <c r="H112" t="s">
-        <v>110</v>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" t="s">
-        <v>87</v>
-      </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C116">
+        <v>255</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>31</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>116</v>
-      </c>
-      <c r="B121" t="s">
-        <v>73</v>
-      </c>
-      <c r="D121" t="s">
-        <v>11</v>
+      <c r="A121" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>76</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,396 +2670,2138 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
-      </c>
-      <c r="D124" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125">
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126">
+        <v>255</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>102</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" t="s">
-        <v>73</v>
-      </c>
-      <c r="D130" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>120</v>
-      </c>
-      <c r="B131" t="s">
-        <v>36</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="A131" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="2">
+        <v>255</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158">
+        <v>50</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>102</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>102</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>76</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170">
+        <v>255</v>
+      </c>
+      <c r="D170" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>102</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>52</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>84</v>
+      </c>
+      <c r="B179" t="s">
+        <v>64</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>168</v>
+      </c>
+      <c r="B180" t="s">
+        <v>167</v>
+      </c>
+      <c r="D180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>171</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>102</v>
+      </c>
+      <c r="C184" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" t="s">
+        <v>102</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" t="s">
+        <v>52</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>163</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191">
+        <v>255</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>102</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>102</v>
+      </c>
+      <c r="C195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>87</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s">
+        <v>76</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>88</v>
+      </c>
+      <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199">
+        <v>30</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>89</v>
+      </c>
+      <c r="B200" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>128</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>90</v>
+      </c>
+      <c r="B201" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>102</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>76</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>105</v>
+      </c>
+      <c r="B208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208">
+        <v>512</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>112</v>
+      </c>
+      <c r="B209" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>106</v>
+      </c>
+      <c r="B210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>102</v>
+      </c>
+      <c r="C211" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>102</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" t="s">
+        <v>102</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>95</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>76</v>
+      </c>
+      <c r="G216" t="s">
+        <v>96</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>97</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217">
+        <v>255</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>98</v>
+      </c>
+      <c r="B218" t="s">
+        <v>33</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>255</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>100</v>
+      </c>
+      <c r="B220" t="s">
+        <v>59</v>
+      </c>
+      <c r="C220" t="s">
+        <v>45</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>102</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>102</v>
+      </c>
+      <c r="C222" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" t="s">
+        <v>102</v>
+      </c>
+      <c r="C223" t="s">
+        <v>23</v>
+      </c>
+      <c r="D223" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>108</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" t="s">
+        <v>76</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>110</v>
+      </c>
+      <c r="B229" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" t="s">
+        <v>171</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C230" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s">
+        <v>102</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>114</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" t="s">
+        <v>76</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>102</v>
+      </c>
+      <c r="C238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" t="s">
+        <v>102</v>
+      </c>
+      <c r="C239" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>102</v>
+      </c>
+      <c r="C240" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>124</v>
       </c>
-      <c r="B134" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>90</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" t="s">
+        <v>76</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" t="s">
         <v>14</v>
       </c>
-      <c r="H134" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>125</v>
       </c>
-      <c r="B135" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135">
-        <v>30</v>
-      </c>
-      <c r="D135" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" t="s">
+        <v>11</v>
+      </c>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>126</v>
       </c>
-      <c r="B136" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136">
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>102</v>
+      </c>
+      <c r="C247" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248" t="s">
+        <v>102</v>
+      </c>
+      <c r="C248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>160</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" t="s">
+        <v>76</v>
+      </c>
+      <c r="G252" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>81</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>125</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+      <c r="G254" t="s">
+        <v>13</v>
+      </c>
+      <c r="H254" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>126</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>102</v>
+      </c>
+      <c r="C256" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>19</v>
+      </c>
+      <c r="B257" t="s">
+        <v>102</v>
+      </c>
+      <c r="C257" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" t="s">
+        <v>102</v>
+      </c>
+      <c r="C258" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>133</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" t="s">
+        <v>11</v>
+      </c>
+      <c r="F261" t="s">
+        <v>76</v>
+      </c>
+      <c r="G261" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>28</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>85</v>
+      </c>
+      <c r="C264" t="s">
+        <v>135</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>102</v>
+      </c>
+      <c r="C265" t="s">
+        <v>23</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>19</v>
+      </c>
+      <c r="B266" t="s">
+        <v>102</v>
+      </c>
+      <c r="C266" t="s">
+        <v>23</v>
+      </c>
+      <c r="D266" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267" t="s">
+        <v>102</v>
+      </c>
+      <c r="C267" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>17</v>
+      </c>
+      <c r="B270" t="s">
+        <v>21</v>
+      </c>
+      <c r="C270">
         <v>128</v>
       </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137">
-        <v>200</v>
-      </c>
-      <c r="D137" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>128</v>
-      </c>
-      <c r="B138" t="s">
-        <v>36</v>
-      </c>
-      <c r="D138" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>47</v>
-      </c>
-      <c r="B139" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>130</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" t="s">
-        <v>90</v>
-      </c>
-      <c r="G143" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>89</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>132</v>
-      </c>
-      <c r="B145" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145">
-        <v>200</v>
-      </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>21</v>
+      </c>
+      <c r="C271">
+        <v>191</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>102</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
         <v>27</v>
-      </c>
-      <c r="E146" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>135</v>
-      </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" t="s">
-        <v>90</v>
-      </c>
-      <c r="G149" t="s">
-        <v>136</v>
-      </c>
-      <c r="H149" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>137</v>
-      </c>
-      <c r="B150" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150">
-        <v>300</v>
-      </c>
-      <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>138</v>
-      </c>
-      <c r="B151" t="s">
-        <v>36</v>
-      </c>
-      <c r="D151" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>139</v>
-      </c>
-      <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152">
-        <v>128</v>
-      </c>
-      <c r="D152" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>140</v>
-      </c>
-      <c r="B153" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B827F08-3588-460F-9CEA-6E1B12F5274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC2F83-B226-4890-8C66-40A572261BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="172">
   <si>
     <t>Field</t>
   </si>
@@ -93,9 +93,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>nvarchar</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -180,15 +177,9 @@
     <t>Table missions</t>
   </si>
   <si>
-    <t>mission_title</t>
-  </si>
-  <si>
     <t>AUTO_INCREMENT</t>
   </si>
   <si>
-    <t>mission_description</t>
-  </si>
-  <si>
     <t>mission_city</t>
   </si>
   <si>
@@ -210,21 +201,9 @@
     <t>mission_country</t>
   </si>
   <si>
-    <t>mission_organization_name</t>
-  </si>
-  <si>
-    <t>mission_organization_details</t>
-  </si>
-  <si>
-    <t>mission_start_date</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>mission_end_date</t>
-  </si>
-  <si>
     <t>mission_type</t>
   </si>
   <si>
@@ -303,9 +282,6 @@
     <t>contact_us_message</t>
   </si>
   <si>
-    <t>Table banners</t>
-  </si>
-  <si>
     <t>banner_id</t>
   </si>
   <si>
@@ -318,18 +294,6 @@
     <t xml:space="preserve">UNSIGNED </t>
   </si>
   <si>
-    <t>cms_page_title</t>
-  </si>
-  <si>
-    <t>cms_page_description</t>
-  </si>
-  <si>
-    <t>cms_page_slug</t>
-  </si>
-  <si>
-    <t>cms_page_status</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
@@ -345,9 +309,6 @@
     <t>banner_image</t>
   </si>
   <si>
-    <t>banner_text</t>
-  </si>
-  <si>
     <t>Table comment</t>
   </si>
   <si>
@@ -363,18 +324,12 @@
     <t>PENDING</t>
   </si>
   <si>
-    <t>banner_sort_order</t>
-  </si>
-  <si>
     <t>Table favourite_mission</t>
   </si>
   <si>
     <t>favourite_mission_id</t>
   </si>
   <si>
-    <t>mission_short_description</t>
-  </si>
-  <si>
     <t>mission_application_id</t>
   </si>
   <si>
@@ -544,6 +499,48 @@
   </si>
   <si>
     <t>APPROVED, PENDING, DECLINED</t>
+  </si>
+  <si>
+    <t>Table banner</t>
+  </si>
+  <si>
+    <t>varbinary</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>datetime2</t>
+  </si>
+  <si>
+    <t>0,1,2,3 - daily, weekly, week-end, monthly</t>
+  </si>
+  <si>
+    <t>short_description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>organization_name</t>
+  </si>
+  <si>
+    <t>organization_details</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>sort_order</t>
   </si>
 </sst>
 </file>
@@ -912,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -965,10 +962,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -997,10 +991,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,7 +1033,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1059,16 +1053,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,13 +1070,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,23 +1084,23 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1121,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1141,10 +1135,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1158,10 +1152,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,24 +1177,24 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>2048</v>
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1217,13 +1211,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1234,21 +1228,21 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1257,15 +1251,15 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1274,81 +1268,75 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1357,15 +1345,15 @@
         <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1374,21 +1362,21 @@
         <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1402,16 +1390,16 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,13 +1407,13 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,26 +1421,26 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1461,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -1472,36 +1460,36 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -1515,16 +1503,16 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1532,10 +1520,10 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,23 +1531,23 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1568,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -1579,13 +1567,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1596,7 +1584,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -1605,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1616,16 +1604,16 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,10 +1621,10 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1644,23 +1632,23 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1669,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
@@ -1680,30 +1668,33 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
         <v>44</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>45</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1717,16 +1708,16 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1734,10 +1725,10 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1745,20 +1736,20 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -1770,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -1781,7 +1772,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -1799,12 +1790,12 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -1819,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1827,16 +1818,16 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1844,10 +1835,10 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,20 +1846,20 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -1880,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -1891,7 +1882,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
@@ -1906,12 +1897,12 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
@@ -1926,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1934,16 +1925,16 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,10 +1942,10 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -1962,23 +1953,23 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -1987,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
@@ -1998,30 +1989,33 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
       </c>
       <c r="C75">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
         <v>44</v>
-      </c>
-      <c r="B76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" t="s">
-        <v>45</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -2035,16 +2029,16 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2052,10 +2046,10 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,20 +2057,20 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
@@ -2088,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
@@ -2099,7 +2093,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -2114,12 +2108,12 @@
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
@@ -2134,15 +2128,15 @@
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -2154,12 +2148,12 @@
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
         <v>21</v>
@@ -2176,23 +2170,23 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2209,13 +2203,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -2223,35 +2217,35 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -2262,35 +2256,35 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2304,16 +2298,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -2321,13 +2315,13 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -2335,23 +2329,23 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
@@ -2363,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
         <v>13</v>
@@ -2374,7 +2368,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -2389,12 +2383,12 @@
         <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
@@ -2409,15 +2403,15 @@
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -2425,19 +2419,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,16 +2439,16 @@
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -2462,13 +2456,13 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,23 +2470,23 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
@@ -2504,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -2515,7 +2509,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -2530,12 +2524,12 @@
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
@@ -2546,7 +2540,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
@@ -2557,7 +2551,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
@@ -2566,7 +2560,7 @@
         <v>255</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -2577,16 +2571,16 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -2594,13 +2588,13 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -2608,23 +2602,23 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -2636,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
@@ -2647,7 +2641,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
@@ -2662,12 +2656,12 @@
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s">
         <v>21</v>
@@ -2678,7 +2672,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
@@ -2689,7 +2683,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
@@ -2698,7 +2692,7 @@
         <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -2709,16 +2703,16 @@
         <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,13 +2720,13 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -2740,18 +2734,18 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2763,7 +2757,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -2776,7 +2770,7 @@
         <v>11</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>13</v>
@@ -2787,7 +2781,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>21</v>
@@ -2810,16 +2804,16 @@
         <v>18</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -2830,13 +2824,13 @@
         <v>19</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -2848,13 +2842,13 @@
         <v>20</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2885,7 +2879,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
@@ -2898,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>13</v>
@@ -2909,7 +2903,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>9</v>
@@ -2926,12 +2920,12 @@
         <v>13</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>9</v>
@@ -2948,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -2956,16 +2950,16 @@
         <v>18</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -2976,13 +2970,13 @@
         <v>19</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -2994,13 +2988,13 @@
         <v>20</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -3019,7 +3013,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3031,7 +3025,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>9</v>
@@ -3044,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>13</v>
@@ -3055,7 +3049,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>9</v>
@@ -3072,12 +3066,12 @@
         <v>13</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
@@ -3094,7 +3088,7 @@
         <v>13</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -3102,16 +3096,16 @@
         <v>18</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -3122,13 +3116,13 @@
         <v>19</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -3140,13 +3134,13 @@
         <v>20</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -3155,12 +3149,12 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
@@ -3172,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
@@ -3183,7 +3177,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
@@ -3198,12 +3192,12 @@
         <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
@@ -3218,12 +3212,12 @@
         <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B158" t="s">
         <v>21</v>
@@ -3240,18 +3234,18 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B159" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -3265,16 +3259,16 @@
         <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,13 +3276,13 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -3296,23 +3290,23 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
@@ -3324,7 +3318,7 @@
         <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G166" t="s">
         <v>13</v>
@@ -3335,7 +3329,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -3350,12 +3344,12 @@
         <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s">
         <v>21</v>
@@ -3366,7 +3360,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B169" t="s">
         <v>21</v>
@@ -3377,7 +3371,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B170" t="s">
         <v>21</v>
@@ -3386,7 +3380,7 @@
         <v>255</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -3397,16 +3391,16 @@
         <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -3414,13 +3408,13 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -3428,23 +3422,23 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
@@ -3456,7 +3450,7 @@
         <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G176" t="s">
         <v>13</v>
@@ -3467,7 +3461,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s">
         <v>9</v>
@@ -3482,12 +3476,12 @@
         <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -3502,15 +3496,15 @@
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
@@ -3518,24 +3512,24 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B180" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
@@ -3543,13 +3537,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -3557,19 +3551,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B183" t="s">
         <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -3577,16 +3571,16 @@
         <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -3594,13 +3588,13 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -3608,23 +3602,23 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
@@ -3636,7 +3630,7 @@
         <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -3647,7 +3641,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B190" t="s">
         <v>9</v>
@@ -3662,12 +3656,12 @@
         <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
@@ -3684,10 +3678,10 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
@@ -3698,16 +3692,16 @@
         <v>18</v>
       </c>
       <c r="B193" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,13 +3709,13 @@
         <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -3729,23 +3723,23 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
@@ -3757,7 +3751,7 @@
         <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G198" t="s">
         <v>13</v>
@@ -3768,7 +3762,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B199" t="s">
         <v>21</v>
@@ -3785,7 +3779,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B200" t="s">
         <v>21</v>
@@ -3802,7 +3796,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B201" t="s">
         <v>21</v>
@@ -3819,10 +3813,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
@@ -3833,13 +3827,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" t="s">
         <v>44</v>
-      </c>
-      <c r="B203" t="s">
-        <v>59</v>
-      </c>
-      <c r="C203" t="s">
-        <v>45</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -3853,29 +3847,29 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D207" t="s">
         <v>10</v>
@@ -3884,7 +3878,7 @@
         <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G207" t="s">
         <v>13</v>
@@ -3895,13 +3889,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B208" t="s">
-        <v>21</v>
-      </c>
-      <c r="C208">
-        <v>512</v>
+        <v>159</v>
+      </c>
+      <c r="C208" t="s">
+        <v>160</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
@@ -3912,10 +3906,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B209" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -3923,108 +3917,111 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C210">
+        <v>300</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B211" t="s">
-        <v>102</v>
-      </c>
-      <c r="C211" t="s">
-        <v>23</v>
-      </c>
-      <c r="D211" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E212" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" t="s">
+        <v>90</v>
+      </c>
+      <c r="C213" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>20</v>
       </c>
-      <c r="B213" t="s">
-        <v>102</v>
-      </c>
-      <c r="C213" t="s">
-        <v>23</v>
-      </c>
-      <c r="D213" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>94</v>
+      <c r="B214" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>95</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" t="s">
-        <v>11</v>
-      </c>
-      <c r="F216" t="s">
-        <v>76</v>
-      </c>
-      <c r="G216" t="s">
-        <v>96</v>
-      </c>
-      <c r="H216" t="s">
-        <v>14</v>
+      <c r="A216" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B217" t="s">
-        <v>21</v>
-      </c>
-      <c r="C217">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D217" t="s">
         <v>10</v>
       </c>
       <c r="E217" t="s">
         <v>11</v>
+      </c>
+      <c r="F217" t="s">
+        <v>69</v>
+      </c>
+      <c r="G217" t="s">
+        <v>88</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C218">
+        <v>255</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
@@ -4035,114 +4032,105 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B219" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="D219" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="B220" t="s">
-        <v>59</v>
-      </c>
-      <c r="C220" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="C220">
+        <v>255</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E220" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B221" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C221" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D221" t="s">
         <v>10</v>
       </c>
-      <c r="E221" t="s">
-        <v>27</v>
+      <c r="E221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B222" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>90</v>
+      </c>
+      <c r="C223" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>20</v>
       </c>
-      <c r="B223" t="s">
-        <v>102</v>
-      </c>
-      <c r="C223" t="s">
-        <v>23</v>
-      </c>
-      <c r="D223" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>107</v>
+      <c r="B224" t="s">
+        <v>90</v>
+      </c>
+      <c r="C224" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>108</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" t="s">
-        <v>10</v>
-      </c>
-      <c r="E226" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" t="s">
-        <v>76</v>
-      </c>
-      <c r="G226" t="s">
-        <v>13</v>
-      </c>
-      <c r="H226" t="s">
-        <v>14</v>
+      <c r="A226" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B227" t="s">
         <v>9</v>
@@ -4153,16 +4141,19 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
+      <c r="F227" t="s">
+        <v>69</v>
+      </c>
       <c r="G227" t="s">
         <v>13</v>
       </c>
       <c r="H227" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
@@ -4177,102 +4168,99 @@
         <v>13</v>
       </c>
       <c r="H228" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
-      </c>
-      <c r="C229" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
         <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B230" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B231" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" t="s">
+        <v>90</v>
+      </c>
+      <c r="C232" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>20</v>
       </c>
-      <c r="B232" t="s">
-        <v>102</v>
-      </c>
-      <c r="C232" t="s">
-        <v>23</v>
-      </c>
-      <c r="D232" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>113</v>
+      <c r="B233" t="s">
+        <v>90</v>
+      </c>
+      <c r="C233" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>114</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" t="s">
-        <v>10</v>
-      </c>
-      <c r="E235" t="s">
-        <v>11</v>
-      </c>
-      <c r="F235" t="s">
-        <v>76</v>
-      </c>
-      <c r="G235" t="s">
-        <v>13</v>
-      </c>
-      <c r="H235" t="s">
-        <v>14</v>
+      <c r="A235" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
@@ -4283,16 +4271,19 @@
       <c r="E236" t="s">
         <v>11</v>
       </c>
+      <c r="F236" t="s">
+        <v>69</v>
+      </c>
       <c r="G236" t="s">
         <v>13</v>
       </c>
       <c r="H236" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
@@ -4307,85 +4298,82 @@
         <v>13</v>
       </c>
       <c r="H237" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B238" t="s">
-        <v>102</v>
-      </c>
-      <c r="C238" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B239" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" t="s">
+        <v>90</v>
+      </c>
+      <c r="C240" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>20</v>
       </c>
-      <c r="B240" t="s">
-        <v>102</v>
-      </c>
-      <c r="C240" t="s">
-        <v>23</v>
-      </c>
-      <c r="D240" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>123</v>
+      <c r="B241" t="s">
+        <v>90</v>
+      </c>
+      <c r="C241" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>124</v>
-      </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243" t="s">
-        <v>10</v>
-      </c>
-      <c r="E243" t="s">
-        <v>11</v>
-      </c>
-      <c r="F243" t="s">
-        <v>76</v>
-      </c>
-      <c r="G243" t="s">
-        <v>13</v>
-      </c>
-      <c r="H243" t="s">
-        <v>14</v>
+      <c r="A243" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B244" t="s">
         <v>9</v>
@@ -4396,16 +4384,19 @@
       <c r="E244" t="s">
         <v>11</v>
       </c>
+      <c r="F244" t="s">
+        <v>69</v>
+      </c>
       <c r="G244" t="s">
         <v>13</v>
       </c>
       <c r="H244" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
         <v>9</v>
@@ -4420,12 +4411,12 @@
         <v>13</v>
       </c>
       <c r="H245" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B246" t="s">
         <v>9</v>
@@ -4440,85 +4431,82 @@
         <v>13</v>
       </c>
       <c r="H246" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B247" t="s">
-        <v>102</v>
-      </c>
-      <c r="C247" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D247" t="s">
         <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D248" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E248" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" t="s">
+        <v>90</v>
+      </c>
+      <c r="C249" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>20</v>
       </c>
-      <c r="B249" t="s">
-        <v>102</v>
-      </c>
-      <c r="C249" t="s">
-        <v>23</v>
-      </c>
-      <c r="D249" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>159</v>
+      <c r="B250" t="s">
+        <v>90</v>
+      </c>
+      <c r="C250" t="s">
+        <v>22</v>
+      </c>
+      <c r="D250" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>160</v>
-      </c>
-      <c r="B252" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252" t="s">
-        <v>10</v>
-      </c>
-      <c r="E252" t="s">
-        <v>11</v>
-      </c>
-      <c r="F252" t="s">
-        <v>76</v>
-      </c>
-      <c r="G252" t="s">
-        <v>13</v>
-      </c>
-      <c r="H252" t="s">
-        <v>14</v>
+      <c r="A252" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B253" t="s">
         <v>9</v>
@@ -4529,16 +4517,19 @@
       <c r="E253" t="s">
         <v>11</v>
       </c>
+      <c r="F253" t="s">
+        <v>69</v>
+      </c>
       <c r="G253" t="s">
         <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B254" t="s">
         <v>9</v>
@@ -4553,12 +4544,12 @@
         <v>13</v>
       </c>
       <c r="H254" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B255" t="s">
         <v>9</v>
@@ -4573,85 +4564,82 @@
         <v>13</v>
       </c>
       <c r="H255" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B256" t="s">
-        <v>102</v>
-      </c>
-      <c r="C256" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
         <v>10</v>
       </c>
       <c r="E256" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="G256" t="s">
+        <v>13</v>
+      </c>
+      <c r="H256" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B257" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E257" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" t="s">
+        <v>90</v>
+      </c>
+      <c r="C258" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>20</v>
       </c>
-      <c r="B258" t="s">
-        <v>102</v>
-      </c>
-      <c r="C258" t="s">
-        <v>23</v>
-      </c>
-      <c r="D258" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>132</v>
+      <c r="B259" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" t="s">
+        <v>22</v>
+      </c>
+      <c r="D259" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>133</v>
-      </c>
-      <c r="B261" t="s">
-        <v>9</v>
-      </c>
-      <c r="D261" t="s">
-        <v>10</v>
-      </c>
-      <c r="E261" t="s">
-        <v>11</v>
-      </c>
-      <c r="F261" t="s">
-        <v>76</v>
-      </c>
-      <c r="G261" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" t="s">
-        <v>14</v>
+      <c r="A261" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
@@ -4662,16 +4650,19 @@
       <c r="E262" t="s">
         <v>11</v>
       </c>
+      <c r="F262" t="s">
+        <v>69</v>
+      </c>
       <c r="G262" t="s">
         <v>13</v>
       </c>
       <c r="H262" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
@@ -4686,102 +4677,105 @@
         <v>13</v>
       </c>
       <c r="H263" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B264" t="s">
-        <v>85</v>
-      </c>
-      <c r="C264" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
         <v>10</v>
       </c>
       <c r="E264" t="s">
         <v>11</v>
+      </c>
+      <c r="G264" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B265" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
       </c>
       <c r="E265" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E266" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>19</v>
+      </c>
+      <c r="B267" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" t="s">
+        <v>22</v>
+      </c>
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>20</v>
       </c>
-      <c r="B267" t="s">
-        <v>102</v>
-      </c>
-      <c r="C267" t="s">
-        <v>23</v>
-      </c>
-      <c r="D267" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>137</v>
+      <c r="B268" t="s">
+        <v>90</v>
+      </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>17</v>
-      </c>
-      <c r="B270" t="s">
-        <v>21</v>
-      </c>
-      <c r="C270">
-        <v>128</v>
-      </c>
-      <c r="D270" t="s">
-        <v>10</v>
-      </c>
-      <c r="E270" t="s">
-        <v>11</v>
+      <c r="A270" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="B271" t="s">
         <v>21</v>
       </c>
       <c r="C271">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D271" t="s">
         <v>10</v>
@@ -4792,16 +4786,33 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>123</v>
+      </c>
+      <c r="B272" t="s">
+        <v>21</v>
+      </c>
+      <c r="C272">
+        <v>191</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>18</v>
       </c>
-      <c r="B272" t="s">
-        <v>102</v>
-      </c>
-      <c r="D272" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" t="s">
-        <v>27</v>
+      <c r="B273" t="s">
+        <v>90</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC2F83-B226-4890-8C66-40A572261BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE39596-85ED-444A-9A4A-6B0DA21442E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="171">
   <si>
     <t>Field</t>
   </si>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>Table banner</t>
-  </si>
-  <si>
-    <t>varbinary</t>
   </si>
   <si>
     <t>max</t>
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,10 +1177,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>159</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1683,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2170,7 +2167,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -2178,7 +2175,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -2186,7 +2183,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -2217,10 +2214,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2228,10 +2225,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2270,7 +2267,7 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2284,7 +2281,7 @@
         <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -3892,10 +3889,10 @@
         <v>93</v>
       </c>
       <c r="B208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" t="s">
         <v>159</v>
-      </c>
-      <c r="C208" t="s">
-        <v>160</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
@@ -3906,7 +3903,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" t="s">
         <v>30</v>
@@ -3934,7 +3931,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B220" t="s">
         <v>21</v>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE39596-85ED-444A-9A4A-6B0DA21442E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A414F-86B2-43A3-A19C-32123AE36958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="167">
   <si>
     <t>Field</t>
   </si>
@@ -252,12 +252,6 @@
     <t>story_id</t>
   </si>
   <si>
-    <t>story_title</t>
-  </si>
-  <si>
-    <t>story_description</t>
-  </si>
-  <si>
     <t>date_volunteered</t>
   </si>
   <si>
@@ -270,18 +264,6 @@
     <t>contact_us_id</t>
   </si>
   <si>
-    <t>contact_us_name</t>
-  </si>
-  <si>
-    <t>contact_us_email</t>
-  </si>
-  <si>
-    <t>contact_us_subject</t>
-  </si>
-  <si>
-    <t>contact_us_message</t>
-  </si>
-  <si>
     <t>banner_id</t>
   </si>
   <si>
@@ -336,9 +318,6 @@
     <t>applied_at</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>mission_document_id</t>
   </si>
   <si>
@@ -538,6 +517,15 @@
   </si>
   <si>
     <t>sort_order</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
   </si>
 </sst>
 </file>
@@ -908,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1050,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1067,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1081,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1092,7 +1080,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1387,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -1404,7 +1392,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -1418,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1500,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1517,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -1528,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -1581,7 +1569,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -1601,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
@@ -1618,7 +1606,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -1629,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -1637,7 +1625,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1680,7 +1668,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
@@ -1722,7 +1710,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -1733,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -1741,12 +1729,12 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -1787,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
@@ -1832,7 +1820,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -1843,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
@@ -1851,12 +1839,12 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -1894,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
@@ -1939,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -1950,7 +1938,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -2001,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2026,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -2043,7 +2031,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -2054,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -2167,7 +2155,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -2175,7 +2163,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -2183,7 +2171,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2200,7 +2188,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -2214,10 +2202,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2225,10 +2213,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2267,7 +2255,7 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2278,10 +2266,10 @@
         <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2295,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
         <v>22</v>
@@ -2312,7 +2300,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
         <v>22</v>
@@ -2326,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -2342,7 +2330,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
@@ -2400,15 +2388,15 @@
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -2416,19 +2404,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,7 +2424,7 @@
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
@@ -2453,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
@@ -2467,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
@@ -2478,12 +2466,12 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
@@ -2526,7 +2514,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
@@ -2537,7 +2525,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
@@ -2548,7 +2536,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
@@ -2568,7 +2556,7 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s">
         <v>22</v>
@@ -2585,7 +2573,7 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
         <v>22</v>
@@ -2599,7 +2587,7 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
         <v>22</v>
@@ -2615,7 +2603,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -2658,7 +2646,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
         <v>21</v>
@@ -2669,7 +2657,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
@@ -2680,7 +2668,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
@@ -2700,7 +2688,7 @@
         <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
@@ -2717,7 +2705,7 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C128" t="s">
         <v>22</v>
@@ -2731,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
@@ -2742,7 +2730,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2801,7 +2789,7 @@
         <v>18</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
@@ -2821,7 +2809,7 @@
         <v>19</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>22</v>
@@ -2839,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>22</v>
@@ -2864,7 +2852,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2876,7 +2864,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
@@ -2917,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>22</v>
@@ -2967,7 +2955,7 @@
         <v>19</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>22</v>
@@ -2985,7 +2973,7 @@
         <v>20</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>22</v>
@@ -3010,7 +2998,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3022,7 +3010,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>9</v>
@@ -3063,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -3085,7 +3073,7 @@
         <v>13</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -3093,7 +3081,7 @@
         <v>18</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>22</v>
@@ -3113,7 +3101,7 @@
         <v>19</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>22</v>
@@ -3131,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>22</v>
@@ -3146,7 +3134,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -3209,18 +3197,18 @@
         <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B158" t="s">
         <v>21</v>
       </c>
       <c r="C158">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -3231,15 +3219,21 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B159" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
         <v>32</v>
@@ -3256,7 +3250,7 @@
         <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -3273,7 +3267,7 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -3287,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -3298,12 +3292,12 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
@@ -3341,12 +3335,12 @@
         <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B168" t="s">
         <v>21</v>
@@ -3357,7 +3351,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B169" t="s">
         <v>21</v>
@@ -3368,7 +3362,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B170" t="s">
         <v>21</v>
@@ -3388,7 +3382,7 @@
         <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C171" t="s">
         <v>22</v>
@@ -3405,7 +3399,7 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C172" t="s">
         <v>22</v>
@@ -3419,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C173" t="s">
         <v>22</v>
@@ -3430,12 +3424,12 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
@@ -3493,12 +3487,12 @@
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B179" t="s">
         <v>58</v>
@@ -3509,10 +3503,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B180" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
@@ -3520,7 +3514,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B181" t="s">
         <v>32</v>
@@ -3534,7 +3528,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B182" t="s">
         <v>30</v>
@@ -3554,13 +3548,13 @@
         <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -3568,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -3585,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -3599,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -3610,12 +3604,12 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
@@ -3658,7 +3652,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
@@ -3675,7 +3669,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
@@ -3689,7 +3683,7 @@
         <v>18</v>
       </c>
       <c r="B193" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C193" t="s">
         <v>22</v>
@@ -3706,7 +3700,7 @@
         <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C194" t="s">
         <v>22</v>
@@ -3720,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
@@ -3731,12 +3725,12 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
@@ -3759,7 +3753,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="B199" t="s">
         <v>21</v>
@@ -3776,7 +3770,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B200" t="s">
         <v>21</v>
@@ -3793,7 +3787,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="B201" t="s">
         <v>21</v>
@@ -3810,7 +3804,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B202" t="s">
         <v>32</v>
@@ -3844,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C204" t="s">
         <v>22</v>
@@ -3858,12 +3852,12 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B207" t="s">
         <v>30</v>
@@ -3886,13 +3880,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B208" t="s">
         <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
@@ -3903,7 +3897,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B209" t="s">
         <v>30</v>
@@ -3931,7 +3925,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -3942,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C212" t="s">
         <v>22</v>
@@ -3959,7 +3953,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
@@ -3973,7 +3967,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
@@ -3984,12 +3978,12 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B217" t="s">
         <v>45</v>
@@ -4004,7 +3998,7 @@
         <v>69</v>
       </c>
       <c r="G217" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H217" t="s">
         <v>14</v>
@@ -4029,7 +4023,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -4043,7 +4037,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B220" t="s">
         <v>21</v>
@@ -4080,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="B222" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C222" t="s">
         <v>22</v>
@@ -4097,7 +4091,7 @@
         <v>19</v>
       </c>
       <c r="B223" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C223" t="s">
         <v>22</v>
@@ -4111,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C224" t="s">
         <v>22</v>
@@ -4122,12 +4116,12 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B227" t="s">
         <v>9</v>
@@ -4185,24 +4179,24 @@
         <v>13</v>
       </c>
       <c r="H229" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B230" t="s">
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -4210,7 +4204,7 @@
         <v>18</v>
       </c>
       <c r="B231" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C231" t="s">
         <v>22</v>
@@ -4227,7 +4221,7 @@
         <v>19</v>
       </c>
       <c r="B232" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C232" t="s">
         <v>22</v>
@@ -4241,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="B233" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C233" t="s">
         <v>22</v>
@@ -4252,12 +4246,12 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
@@ -4315,7 +4309,7 @@
         <v>13</v>
       </c>
       <c r="H238" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -4323,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="B239" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C239" t="s">
         <v>22</v>
@@ -4340,7 +4334,7 @@
         <v>19</v>
       </c>
       <c r="B240" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
@@ -4354,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="B241" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C241" t="s">
         <v>22</v>
@@ -4365,12 +4359,12 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B244" t="s">
         <v>9</v>
@@ -4413,7 +4407,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B246" t="s">
         <v>9</v>
@@ -4428,12 +4422,12 @@
         <v>13</v>
       </c>
       <c r="H246" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
@@ -4448,7 +4442,7 @@
         <v>13</v>
       </c>
       <c r="H247" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,7 +4450,7 @@
         <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C248" t="s">
         <v>22</v>
@@ -4473,7 +4467,7 @@
         <v>19</v>
       </c>
       <c r="B249" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C249" t="s">
         <v>22</v>
@@ -4487,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="B250" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -4498,12 +4492,12 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B253" t="s">
         <v>9</v>
@@ -4541,12 +4535,12 @@
         <v>13</v>
       </c>
       <c r="H254" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B255" t="s">
         <v>9</v>
@@ -4561,12 +4555,12 @@
         <v>13</v>
       </c>
       <c r="H255" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
@@ -4581,7 +4575,7 @@
         <v>13</v>
       </c>
       <c r="H256" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -4589,7 +4583,7 @@
         <v>18</v>
       </c>
       <c r="B257" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
@@ -4606,7 +4600,7 @@
         <v>19</v>
       </c>
       <c r="B258" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C258" t="s">
         <v>22</v>
@@ -4620,7 +4614,7 @@
         <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C259" t="s">
         <v>22</v>
@@ -4631,12 +4625,12 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
@@ -4694,18 +4688,18 @@
         <v>13</v>
       </c>
       <c r="H264" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B265" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C265" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
@@ -4719,7 +4713,7 @@
         <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C266" t="s">
         <v>22</v>
@@ -4736,7 +4730,7 @@
         <v>19</v>
       </c>
       <c r="B267" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C267" t="s">
         <v>22</v>
@@ -4750,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C268" t="s">
         <v>22</v>
@@ -4761,7 +4755,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -4783,13 +4777,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B272" t="s">
         <v>21</v>
       </c>
       <c r="C272">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="D272" t="s">
         <v>10</v>
@@ -4803,7 +4797,7 @@
         <v>18</v>
       </c>
       <c r="B273" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D273" t="s">
         <v>10</v>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A414F-86B2-43A3-A19C-32123AE36958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0FF80-9D28-4D36-830D-642C45B05EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="169">
   <si>
     <t>Field</t>
   </si>
@@ -321,15 +321,6 @@
     <t>mission_document_id</t>
   </si>
   <si>
-    <t>mission_document_name</t>
-  </si>
-  <si>
-    <t>mission_document_type</t>
-  </si>
-  <si>
-    <t>mission_document_path</t>
-  </si>
-  <si>
     <t>Table mission_invite</t>
   </si>
   <si>
@@ -348,15 +339,6 @@
     <t>mission_media_id</t>
   </si>
   <si>
-    <t>mission_media_name</t>
-  </si>
-  <si>
-    <t>mission_media_type</t>
-  </si>
-  <si>
-    <t>mission_media_path</t>
-  </si>
-  <si>
     <t>Table mission_rating</t>
   </si>
   <si>
@@ -526,6 +508,30 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1 </t>
+  </si>
+  <si>
+    <t>media_name</t>
+  </si>
+  <si>
+    <t>media_type</t>
+  </si>
+  <si>
+    <t>media_path</t>
+  </si>
+  <si>
+    <t>document_name</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>document_path</t>
   </si>
 </sst>
 </file>
@@ -894,17 +900,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="N76" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
@@ -1168,7 +1174,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,12 +1735,12 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -1795,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,12 +1845,12 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -1882,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2155,7 +2161,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -2163,7 +2169,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -2171,7 +2177,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -2202,10 +2208,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2213,10 +2219,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2255,7 +2261,7 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2269,7 +2275,7 @@
         <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2396,7 +2402,7 @@
         <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -2410,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -2466,12 +2472,12 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
@@ -2514,18 +2520,18 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
       </c>
       <c r="C114">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
@@ -2536,7 +2542,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
@@ -2553,24 +2559,21 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" t="s">
-        <v>26</v>
+        <v>162</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
         <v>84</v>
@@ -2579,54 +2582,48 @@
         <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>20</v>
       </c>
-      <c r="B119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>97</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s">
-        <v>69</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
@@ -2637,72 +2634,78 @@
       <c r="E123" t="s">
         <v>11</v>
       </c>
+      <c r="F123" t="s">
+        <v>69</v>
+      </c>
       <c r="G123" t="s">
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124">
-        <v>255</v>
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
       </c>
       <c r="C125">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
       </c>
       <c r="C126">
-        <v>255</v>
-      </c>
-      <c r="D126" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
-      </c>
-      <c r="C127" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C127">
+        <v>255</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B128" t="s">
         <v>84</v>
@@ -2711,94 +2714,91 @@
         <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>20</v>
       </c>
-      <c r="B129" t="s">
-        <v>84</v>
-      </c>
-      <c r="C129" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A132" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" s="2">
-        <v>255</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="F133" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C134" s="2">
+        <v>255</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>84</v>
@@ -2815,16 +2815,18 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E135" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>84</v>
@@ -2841,19 +2843,25 @@
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="A137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -2863,32 +2871,20 @@
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A139" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>9</v>
@@ -2900,17 +2896,19 @@
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>9</v>
@@ -2927,32 +2925,34 @@
         <v>13</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>84</v>
@@ -2961,16 +2961,18 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>84</v>
@@ -2987,19 +2989,25 @@
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3009,32 +3017,20 @@
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A147" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>9</v>
@@ -3046,17 +3042,19 @@
       <c r="E148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
@@ -3073,32 +3071,34 @@
         <v>13</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>84</v>
@@ -3107,16 +3107,18 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E151" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>84</v>
@@ -3132,37 +3134,32 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>74</v>
-      </c>
-      <c r="B155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>69</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
-        <v>14</v>
+      <c r="A155" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
@@ -3173,16 +3170,19 @@
       <c r="E156" t="s">
         <v>11</v>
       </c>
+      <c r="F156" t="s">
+        <v>69</v>
+      </c>
       <c r="G156" t="s">
         <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
@@ -3197,74 +3197,77 @@
         <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
-      </c>
-      <c r="C158">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="C159">
+        <v>80</v>
       </c>
       <c r="D159" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
         <v>84</v>
@@ -3273,54 +3276,48 @@
         <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>20</v>
       </c>
-      <c r="B163" t="s">
-        <v>84</v>
-      </c>
-      <c r="C163" t="s">
-        <v>22</v>
-      </c>
-      <c r="D163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>136</v>
+      <c r="B164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>131</v>
-      </c>
-      <c r="B166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" t="s">
-        <v>69</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s">
-        <v>14</v>
+      <c r="A166" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -3331,72 +3328,78 @@
       <c r="E167" t="s">
         <v>11</v>
       </c>
+      <c r="F167" t="s">
+        <v>69</v>
+      </c>
       <c r="G167" t="s">
         <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
-      </c>
-      <c r="C168">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B169" t="s">
         <v>21</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B170" t="s">
         <v>21</v>
       </c>
       <c r="C170">
-        <v>255</v>
-      </c>
-      <c r="D170" t="s">
-        <v>23</v>
-      </c>
-      <c r="E170" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B171" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C171">
+        <v>255</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E171" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
         <v>84</v>
@@ -3405,54 +3408,48 @@
         <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>20</v>
       </c>
-      <c r="B173" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>143</v>
+      <c r="B174" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>144</v>
-      </c>
-      <c r="B176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s">
-        <v>50</v>
-      </c>
-      <c r="G176" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" t="s">
-        <v>14</v>
+      <c r="A176" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="B177" t="s">
         <v>9</v>
@@ -3463,16 +3460,19 @@
       <c r="E177" t="s">
         <v>11</v>
       </c>
+      <c r="F177" t="s">
+        <v>50</v>
+      </c>
       <c r="G177" t="s">
         <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -3487,51 +3487,57 @@
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="B180" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="D180" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
-      </c>
-      <c r="E181" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -3542,41 +3548,38 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
-      </c>
-      <c r="C183" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E183" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B184" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B185" t="s">
         <v>84</v>
@@ -3585,54 +3588,48 @@
         <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>20</v>
       </c>
-      <c r="B186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C186" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>139</v>
+      <c r="B187" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>140</v>
-      </c>
-      <c r="B189" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" t="s">
-        <v>10</v>
-      </c>
-      <c r="E189" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" t="s">
-        <v>50</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s">
-        <v>14</v>
+      <c r="A189" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B190" t="s">
         <v>9</v>
@@ -3643,61 +3640,67 @@
       <c r="E190" t="s">
         <v>11</v>
       </c>
+      <c r="F190" t="s">
+        <v>50</v>
+      </c>
       <c r="G190" t="s">
         <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
-      </c>
-      <c r="C191">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C192">
+        <v>255</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B193" t="s">
-        <v>84</v>
-      </c>
-      <c r="C193" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
-      </c>
-      <c r="E193" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B194" t="s">
         <v>84</v>
@@ -3706,77 +3709,77 @@
         <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
+        <v>84</v>
+      </c>
+      <c r="C195" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>20</v>
       </c>
-      <c r="B195" t="s">
-        <v>84</v>
-      </c>
-      <c r="C195" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="B196" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" t="s">
+        <v>22</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>78</v>
-      </c>
-      <c r="B198" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" t="s">
-        <v>69</v>
-      </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
-      </c>
-      <c r="C199">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
         <v>10</v>
       </c>
       <c r="E199" t="s">
         <v>11</v>
+      </c>
+      <c r="F199" t="s">
+        <v>69</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B200" t="s">
         <v>21</v>
       </c>
       <c r="C200">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D200" t="s">
         <v>10</v>
@@ -3787,13 +3790,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="B201" t="s">
         <v>21</v>
       </c>
       <c r="C201">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
@@ -3804,10 +3807,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C202">
+        <v>200</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
@@ -3818,139 +3824,136 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B203" t="s">
-        <v>56</v>
-      </c>
-      <c r="C203" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
       </c>
-      <c r="E203">
-        <v>0</v>
+      <c r="E203" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>43</v>
+      </c>
+      <c r="B204" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" t="s">
+        <v>44</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>18</v>
       </c>
-      <c r="B204" t="s">
-        <v>84</v>
-      </c>
-      <c r="C204" t="s">
-        <v>22</v>
-      </c>
-      <c r="D204" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="B205" t="s">
+        <v>84</v>
+      </c>
+      <c r="C205" t="s">
+        <v>22</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>79</v>
-      </c>
-      <c r="B207" t="s">
-        <v>30</v>
-      </c>
-      <c r="D207" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" t="s">
-        <v>69</v>
-      </c>
-      <c r="G207" t="s">
-        <v>13</v>
-      </c>
-      <c r="H207" t="s">
-        <v>14</v>
+      <c r="A207" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B208" t="s">
-        <v>21</v>
-      </c>
-      <c r="C208" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
+      </c>
+      <c r="F208" t="s">
+        <v>69</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C209" t="s">
+        <v>146</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B210" t="s">
-        <v>21</v>
-      </c>
-      <c r="C210">
-        <v>300</v>
-      </c>
-      <c r="D210" t="s">
-        <v>10</v>
-      </c>
-      <c r="E210" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C211">
+        <v>300</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="B212" t="s">
-        <v>84</v>
-      </c>
-      <c r="C212" t="s">
-        <v>22</v>
-      </c>
-      <c r="D212" t="s">
-        <v>10</v>
-      </c>
-      <c r="E212" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B213" t="s">
         <v>84</v>
@@ -3959,74 +3962,77 @@
         <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" t="s">
+        <v>84</v>
+      </c>
+      <c r="C214" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>20</v>
       </c>
-      <c r="B214" t="s">
-        <v>84</v>
-      </c>
-      <c r="C214" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="B215" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>81</v>
-      </c>
-      <c r="B217" t="s">
-        <v>45</v>
-      </c>
-      <c r="D217" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" t="s">
-        <v>11</v>
-      </c>
-      <c r="F217" t="s">
-        <v>69</v>
-      </c>
-      <c r="G217" t="s">
-        <v>82</v>
-      </c>
-      <c r="H217" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B218" t="s">
-        <v>21</v>
-      </c>
-      <c r="C218">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
+      </c>
+      <c r="F218" t="s">
+        <v>69</v>
+      </c>
+      <c r="G218" t="s">
+        <v>82</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>255</v>
       </c>
       <c r="D219" t="s">
         <v>10</v>
@@ -4037,58 +4043,55 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B220" t="s">
-        <v>21</v>
-      </c>
-      <c r="C220">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="B221" t="s">
-        <v>56</v>
-      </c>
-      <c r="C221" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C221">
+        <v>255</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E221" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B222" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D222" t="s">
         <v>10</v>
       </c>
-      <c r="E222" t="s">
-        <v>26</v>
+      <c r="E222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B223" t="s">
         <v>84</v>
@@ -4097,54 +4100,48 @@
         <v>22</v>
       </c>
       <c r="D223" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E223" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s">
+        <v>84</v>
+      </c>
+      <c r="C224" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>20</v>
       </c>
-      <c r="B224" t="s">
-        <v>84</v>
-      </c>
-      <c r="C224" t="s">
-        <v>22</v>
-      </c>
-      <c r="D224" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="B225" t="s">
+        <v>84</v>
+      </c>
+      <c r="C225" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>89</v>
-      </c>
-      <c r="B227" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" t="s">
-        <v>10</v>
-      </c>
-      <c r="E227" t="s">
-        <v>11</v>
-      </c>
-      <c r="F227" t="s">
-        <v>69</v>
-      </c>
-      <c r="G227" t="s">
-        <v>13</v>
-      </c>
-      <c r="H227" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
@@ -4155,16 +4152,19 @@
       <c r="E228" t="s">
         <v>11</v>
       </c>
+      <c r="F228" t="s">
+        <v>69</v>
+      </c>
       <c r="G228" t="s">
         <v>13</v>
       </c>
       <c r="H228" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B229" t="s">
         <v>9</v>
@@ -4179,46 +4179,49 @@
         <v>13</v>
       </c>
       <c r="H229" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>21</v>
-      </c>
-      <c r="C230" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B231" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="D231" t="s">
         <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B232" t="s">
         <v>84</v>
@@ -4227,54 +4230,48 @@
         <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>84</v>
+      </c>
+      <c r="C233" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>20</v>
       </c>
-      <c r="B233" t="s">
-        <v>84</v>
-      </c>
-      <c r="C233" t="s">
-        <v>22</v>
-      </c>
-      <c r="D233" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="B234" t="s">
+        <v>84</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>94</v>
-      </c>
-      <c r="B236" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" t="s">
-        <v>10</v>
-      </c>
-      <c r="E236" t="s">
-        <v>11</v>
-      </c>
-      <c r="F236" t="s">
-        <v>69</v>
-      </c>
-      <c r="G236" t="s">
-        <v>13</v>
-      </c>
-      <c r="H236" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
@@ -4285,16 +4282,19 @@
       <c r="E237" t="s">
         <v>11</v>
       </c>
+      <c r="F237" t="s">
+        <v>69</v>
+      </c>
       <c r="G237" t="s">
         <v>13</v>
       </c>
       <c r="H237" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -4309,29 +4309,32 @@
         <v>13</v>
       </c>
       <c r="H238" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>84</v>
-      </c>
-      <c r="C239" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
         <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B240" t="s">
         <v>84</v>
@@ -4340,54 +4343,48 @@
         <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E240" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" t="s">
+        <v>84</v>
+      </c>
+      <c r="C241" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>20</v>
       </c>
-      <c r="B241" t="s">
-        <v>84</v>
-      </c>
-      <c r="C241" t="s">
-        <v>22</v>
-      </c>
-      <c r="D241" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>101</v>
+      <c r="B242" t="s">
+        <v>84</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>102</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" t="s">
-        <v>10</v>
-      </c>
-      <c r="E244" t="s">
-        <v>11</v>
-      </c>
-      <c r="F244" t="s">
-        <v>69</v>
-      </c>
-      <c r="G244" t="s">
-        <v>13</v>
-      </c>
-      <c r="H244" t="s">
-        <v>14</v>
+      <c r="A244" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B245" t="s">
         <v>9</v>
@@ -4398,16 +4395,19 @@
       <c r="E245" t="s">
         <v>11</v>
       </c>
+      <c r="F245" t="s">
+        <v>69</v>
+      </c>
       <c r="G245" t="s">
         <v>13</v>
       </c>
       <c r="H245" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
         <v>9</v>
@@ -4422,12 +4422,12 @@
         <v>13</v>
       </c>
       <c r="H246" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
@@ -4447,24 +4447,27 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B248" t="s">
-        <v>84</v>
-      </c>
-      <c r="C248" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D248" t="s">
         <v>10</v>
       </c>
       <c r="E248" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B249" t="s">
         <v>84</v>
@@ -4473,54 +4476,48 @@
         <v>22</v>
       </c>
       <c r="D249" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E249" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" t="s">
+        <v>84</v>
+      </c>
+      <c r="C250" t="s">
+        <v>22</v>
+      </c>
+      <c r="D250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>20</v>
       </c>
-      <c r="B250" t="s">
-        <v>84</v>
-      </c>
-      <c r="C250" t="s">
-        <v>22</v>
-      </c>
-      <c r="D250" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>137</v>
+      <c r="B251" t="s">
+        <v>84</v>
+      </c>
+      <c r="C251" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>138</v>
-      </c>
-      <c r="B253" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253" t="s">
-        <v>10</v>
-      </c>
-      <c r="E253" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" t="s">
-        <v>69</v>
-      </c>
-      <c r="G253" t="s">
-        <v>13</v>
-      </c>
-      <c r="H253" t="s">
-        <v>14</v>
+      <c r="A253" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B254" t="s">
         <v>9</v>
@@ -4531,16 +4528,19 @@
       <c r="E254" t="s">
         <v>11</v>
       </c>
+      <c r="F254" t="s">
+        <v>69</v>
+      </c>
       <c r="G254" t="s">
         <v>13</v>
       </c>
       <c r="H254" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B255" t="s">
         <v>9</v>
@@ -4555,12 +4555,12 @@
         <v>13</v>
       </c>
       <c r="H255" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
@@ -4580,24 +4580,27 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B257" t="s">
-        <v>84</v>
-      </c>
-      <c r="C257" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D257" t="s">
         <v>10</v>
       </c>
       <c r="E257" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B258" t="s">
         <v>84</v>
@@ -4606,54 +4609,48 @@
         <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E258" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>19</v>
+      </c>
+      <c r="B259" t="s">
+        <v>84</v>
+      </c>
+      <c r="C259" t="s">
+        <v>22</v>
+      </c>
+      <c r="D259" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>20</v>
       </c>
-      <c r="B259" t="s">
-        <v>84</v>
-      </c>
-      <c r="C259" t="s">
-        <v>22</v>
-      </c>
-      <c r="D259" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>110</v>
+      <c r="B260" t="s">
+        <v>84</v>
+      </c>
+      <c r="C260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>111</v>
-      </c>
-      <c r="B262" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" t="s">
-        <v>11</v>
-      </c>
-      <c r="F262" t="s">
-        <v>69</v>
-      </c>
-      <c r="G262" t="s">
-        <v>13</v>
-      </c>
-      <c r="H262" t="s">
-        <v>14</v>
+      <c r="A262" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
@@ -4664,16 +4661,19 @@
       <c r="E263" t="s">
         <v>11</v>
       </c>
+      <c r="F263" t="s">
+        <v>69</v>
+      </c>
       <c r="G263" t="s">
         <v>13</v>
       </c>
       <c r="H263" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
@@ -4688,46 +4688,49 @@
         <v>13</v>
       </c>
       <c r="H264" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>76</v>
-      </c>
-      <c r="C265" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
       </c>
       <c r="E265" t="s">
         <v>11</v>
+      </c>
+      <c r="G265" t="s">
+        <v>13</v>
+      </c>
+      <c r="H265" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B266" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D266" t="s">
         <v>10</v>
       </c>
       <c r="E266" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B267" t="s">
         <v>84</v>
@@ -4736,54 +4739,54 @@
         <v>22</v>
       </c>
       <c r="D267" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E267" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268" t="s">
+        <v>84</v>
+      </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>20</v>
       </c>
-      <c r="B268" t="s">
-        <v>84</v>
-      </c>
-      <c r="C268" t="s">
-        <v>22</v>
-      </c>
-      <c r="D268" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>115</v>
+      <c r="B269" t="s">
+        <v>84</v>
+      </c>
+      <c r="C269" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" t="s">
-        <v>21</v>
-      </c>
-      <c r="C271">
-        <v>128</v>
-      </c>
-      <c r="D271" t="s">
-        <v>10</v>
-      </c>
-      <c r="E271" t="s">
-        <v>11</v>
+      <c r="A271" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B272" t="s">
         <v>21</v>
       </c>
       <c r="C272">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="D272" t="s">
         <v>10</v>
@@ -4794,15 +4797,32 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>110</v>
+      </c>
+      <c r="B273" t="s">
+        <v>21</v>
+      </c>
+      <c r="C273">
+        <v>255</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>18</v>
       </c>
-      <c r="B273" t="s">
-        <v>84</v>
-      </c>
-      <c r="D273" t="s">
-        <v>10</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="B274" t="s">
+        <v>84</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
         <v>26</v>
       </c>
     </row>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TatvaSoft\CI-Platform-Assignments\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0FF80-9D28-4D36-830D-642C45B05EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7615415A-5550-490C-8790-1E4EBFB4C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61ACD3A2-1B7E-490D-80C4-AA742D1E6BB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="170">
   <si>
     <t>Field</t>
   </si>
@@ -432,12 +432,6 @@
     <t>mission_goal_id</t>
   </si>
   <si>
-    <t>mission_goal_objective</t>
-  </si>
-  <si>
-    <t>mission_goal_value</t>
-  </si>
-  <si>
     <t>Table mission_timesheet</t>
   </si>
   <si>
@@ -456,12 +450,6 @@
     <t>action</t>
   </si>
   <si>
-    <t>PENDING, APPROVED, DECLINED</t>
-  </si>
-  <si>
-    <t>APPROVED, PENDING, DECLINED</t>
-  </si>
-  <si>
     <t>Table banner</t>
   </si>
   <si>
@@ -532,6 +520,21 @@
   </si>
   <si>
     <t>document_path</t>
+  </si>
+  <si>
+    <t>0,1,2 - APPROVED, PENDING, DECLINED</t>
+  </si>
+  <si>
+    <t>0,1,2 - PENDING, APPROVED, DECLINED</t>
+  </si>
+  <si>
+    <t>goal_objective</t>
+  </si>
+  <si>
+    <t>goal_value</t>
+  </si>
+  <si>
+    <t>goal_achieved</t>
   </si>
 </sst>
 </file>
@@ -900,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8BA911-DC5C-494F-A61F-EE4969852268}">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N76" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1674,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,7 +2164,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -2169,7 +2172,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -2208,10 +2211,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2219,10 +2222,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2261,7 +2264,7 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2269,41 +2272,32 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
         <v>76</v>
       </c>
-      <c r="C96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
       </c>
-      <c r="E97" t="s">
-        <v>26</v>
+      <c r="E97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
         <v>84</v>
@@ -2312,54 +2306,48 @@
         <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>20</v>
       </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s">
-        <v>69</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -2370,16 +2358,19 @@
       <c r="E103" t="s">
         <v>11</v>
       </c>
+      <c r="F103" t="s">
+        <v>69</v>
+      </c>
       <c r="G103" t="s">
         <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
@@ -2394,57 +2385,60 @@
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" t="s">
         <v>144</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
         <v>84</v>
@@ -2453,54 +2447,48 @@
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>20</v>
       </c>
-      <c r="B109" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" t="s">
-        <v>69</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -2511,50 +2499,56 @@
       <c r="E113" t="s">
         <v>11</v>
       </c>
+      <c r="F113" t="s">
+        <v>69</v>
+      </c>
       <c r="G113" t="s">
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
       </c>
       <c r="C116">
-        <v>255</v>
-      </c>
-      <c r="D116" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -2562,35 +2556,35 @@
         <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" t="s">
-        <v>162</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C117">
+        <v>255</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>26</v>
+        <v>158</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
         <v>84</v>
@@ -2599,54 +2593,48 @@
         <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>20</v>
       </c>
-      <c r="B120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" t="s">
-        <v>22</v>
-      </c>
-      <c r="D120" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>97</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" t="s">
-        <v>69</v>
-      </c>
-      <c r="G123" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
@@ -2657,72 +2645,78 @@
       <c r="E124" t="s">
         <v>11</v>
       </c>
+      <c r="F124" t="s">
+        <v>69</v>
+      </c>
       <c r="G124" t="s">
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B127" t="s">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>255</v>
-      </c>
-      <c r="D127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>255</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
         <v>84</v>
@@ -2731,94 +2725,91 @@
         <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>20</v>
       </c>
-      <c r="B130" t="s">
-        <v>84</v>
-      </c>
-      <c r="C130" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="B131" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C134" s="2">
-        <v>255</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C135" s="2">
+        <v>255</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -2826,7 +2817,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>84</v>
@@ -2835,16 +2826,18 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>84</v>
@@ -2861,19 +2854,25 @@
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -2883,32 +2882,20 @@
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A140" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>9</v>
@@ -2920,17 +2907,19 @@
       <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>9</v>
@@ -2947,32 +2936,34 @@
         <v>13</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>84</v>
@@ -2981,16 +2972,18 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E144" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>84</v>
@@ -3007,19 +3000,25 @@
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="A146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3029,32 +3028,20 @@
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A148" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
@@ -3066,17 +3053,19 @@
       <c r="E149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="2"/>
+      <c r="F149" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>9</v>
@@ -3093,32 +3082,34 @@
         <v>13</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="G151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>84</v>
@@ -3127,16 +3118,18 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>84</v>
@@ -3152,37 +3145,32 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>74</v>
-      </c>
-      <c r="B156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>69</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
@@ -3193,16 +3181,19 @@
       <c r="E157" t="s">
         <v>11</v>
       </c>
+      <c r="F157" t="s">
+        <v>69</v>
+      </c>
       <c r="G157" t="s">
         <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
@@ -3217,74 +3208,77 @@
         <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
-      </c>
-      <c r="C159">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+      <c r="C160">
+        <v>80</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B162" t="s">
-        <v>84</v>
-      </c>
-      <c r="C162" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B163" t="s">
         <v>84</v>
@@ -3293,54 +3287,48 @@
         <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>20</v>
       </c>
-      <c r="B164" t="s">
-        <v>84</v>
-      </c>
-      <c r="C164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="B165" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>125</v>
-      </c>
-      <c r="B167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" t="s">
-        <v>69</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B168" t="s">
         <v>9</v>
@@ -3351,72 +3339,78 @@
       <c r="E168" t="s">
         <v>11</v>
       </c>
+      <c r="F168" t="s">
+        <v>69</v>
+      </c>
       <c r="G168" t="s">
         <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B170" t="s">
         <v>21</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B171" t="s">
         <v>21</v>
       </c>
       <c r="C171">
-        <v>255</v>
-      </c>
-      <c r="D171" t="s">
-        <v>23</v>
-      </c>
-      <c r="E171" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B172" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C172">
+        <v>255</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
         <v>84</v>
@@ -3425,54 +3419,48 @@
         <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>20</v>
       </c>
-      <c r="B174" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D174" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>137</v>
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>138</v>
-      </c>
-      <c r="B177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" t="s">
-        <v>50</v>
-      </c>
-      <c r="G177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="s">
-        <v>14</v>
+      <c r="A177" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -3483,16 +3471,19 @@
       <c r="E178" t="s">
         <v>11</v>
       </c>
+      <c r="F178" t="s">
+        <v>50</v>
+      </c>
       <c r="G178" t="s">
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B179" t="s">
         <v>9</v>
@@ -3507,51 +3498,57 @@
         <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
         <v>10</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B181" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D181" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
-      </c>
-      <c r="E182" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -3562,41 +3559,38 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="B184" t="s">
-        <v>21</v>
-      </c>
-      <c r="C184" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E184" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B186" t="s">
         <v>84</v>
@@ -3605,54 +3599,48 @@
         <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>20</v>
       </c>
-      <c r="B187" t="s">
-        <v>84</v>
-      </c>
-      <c r="C187" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="B188" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>134</v>
-      </c>
-      <c r="B190" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" t="s">
-        <v>50</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
@@ -3663,157 +3651,157 @@
       <c r="E191" t="s">
         <v>11</v>
       </c>
+      <c r="F191" t="s">
+        <v>50</v>
+      </c>
       <c r="G191" t="s">
         <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
-      </c>
-      <c r="C192">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
       </c>
       <c r="E192" t="s">
         <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C193">
+        <v>255</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B194" t="s">
-        <v>84</v>
-      </c>
-      <c r="C194" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
-      </c>
-      <c r="E194" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>84</v>
-      </c>
-      <c r="C195" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" t="s">
+        <v>22</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>20</v>
       </c>
-      <c r="B196" t="s">
-        <v>84</v>
-      </c>
-      <c r="C196" t="s">
-        <v>22</v>
-      </c>
-      <c r="D196" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="B198" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>78</v>
-      </c>
-      <c r="B199" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" t="s">
-        <v>10</v>
-      </c>
-      <c r="E199" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" t="s">
-        <v>69</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>158</v>
-      </c>
-      <c r="B200" t="s">
-        <v>21</v>
-      </c>
-      <c r="C200">
-        <v>30</v>
-      </c>
-      <c r="D200" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B201" t="s">
-        <v>21</v>
-      </c>
-      <c r="C201">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
       </c>
       <c r="E201" t="s">
         <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>69</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B202" t="s">
         <v>21</v>
       </c>
       <c r="C202">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
@@ -3824,10 +3812,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C203">
+        <v>128</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -3838,226 +3829,226 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B204" t="s">
-        <v>56</v>
-      </c>
-      <c r="C204" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C204">
+        <v>200</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
       </c>
-      <c r="E204">
-        <v>0</v>
+      <c r="E204" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>156</v>
+      </c>
+      <c r="B205" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>43</v>
+      </c>
+      <c r="B206" t="s">
+        <v>56</v>
+      </c>
+      <c r="C206" t="s">
+        <v>44</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>18</v>
       </c>
-      <c r="B205" t="s">
-        <v>84</v>
-      </c>
-      <c r="C205" t="s">
-        <v>22</v>
-      </c>
-      <c r="D205" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="B207" t="s">
+        <v>84</v>
+      </c>
+      <c r="C207" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>79</v>
-      </c>
-      <c r="B208" t="s">
-        <v>30</v>
-      </c>
-      <c r="D208" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" t="s">
-        <v>69</v>
-      </c>
-      <c r="G208" t="s">
-        <v>13</v>
-      </c>
-      <c r="H208" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>87</v>
-      </c>
-      <c r="B209" t="s">
-        <v>21</v>
-      </c>
-      <c r="C209" t="s">
-        <v>146</v>
-      </c>
-      <c r="D209" t="s">
-        <v>10</v>
-      </c>
-      <c r="E209" t="s">
-        <v>11</v>
+      <c r="A209" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B210" t="s">
         <v>30</v>
       </c>
-      <c r="E210">
-        <v>0</v>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" t="s">
+        <v>69</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B211" t="s">
         <v>21</v>
       </c>
-      <c r="C211">
-        <v>300</v>
+      <c r="C211" t="s">
+        <v>142</v>
       </c>
       <c r="D211" t="s">
         <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B213" t="s">
-        <v>84</v>
-      </c>
-      <c r="C213" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C213">
+        <v>300</v>
       </c>
       <c r="D213" t="s">
         <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B214" t="s">
-        <v>84</v>
-      </c>
-      <c r="C214" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>84</v>
+      </c>
+      <c r="C216" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>20</v>
       </c>
-      <c r="B215" t="s">
-        <v>84</v>
-      </c>
-      <c r="C215" t="s">
-        <v>22</v>
-      </c>
-      <c r="D215" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="B217" t="s">
+        <v>84</v>
+      </c>
+      <c r="C217" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>81</v>
-      </c>
-      <c r="B218" t="s">
-        <v>45</v>
-      </c>
-      <c r="D218" t="s">
-        <v>10</v>
-      </c>
-      <c r="E218" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" t="s">
-        <v>69</v>
-      </c>
-      <c r="G218" t="s">
-        <v>82</v>
-      </c>
-      <c r="H218" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>42</v>
-      </c>
-      <c r="B219" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219">
-        <v>255</v>
-      </c>
-      <c r="D219" t="s">
-        <v>10</v>
-      </c>
-      <c r="E219" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D220" t="s">
         <v>10</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
+      </c>
+      <c r="F220" t="s">
+        <v>69</v>
+      </c>
+      <c r="G220" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B221" t="s">
         <v>21</v>
@@ -4066,125 +4057,113 @@
         <v>255</v>
       </c>
       <c r="D221" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B222" t="s">
-        <v>56</v>
-      </c>
-      <c r="C222" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D222" t="s">
         <v>10</v>
       </c>
-      <c r="E222">
-        <v>1</v>
+      <c r="E222" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B223" t="s">
-        <v>84</v>
-      </c>
-      <c r="C223" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C223">
+        <v>255</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B224" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D224" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>84</v>
+      </c>
+      <c r="C225" t="s">
+        <v>22</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" t="s">
+        <v>84</v>
+      </c>
+      <c r="C226" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>20</v>
       </c>
-      <c r="B225" t="s">
-        <v>84</v>
-      </c>
-      <c r="C225" t="s">
-        <v>22</v>
-      </c>
-      <c r="D225" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="B227" t="s">
+        <v>84</v>
+      </c>
+      <c r="C227" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>89</v>
-      </c>
-      <c r="B228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" t="s">
-        <v>10</v>
-      </c>
-      <c r="E228" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" t="s">
-        <v>69</v>
-      </c>
-      <c r="G228" t="s">
-        <v>13</v>
-      </c>
-      <c r="H228" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>48</v>
-      </c>
-      <c r="B229" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" t="s">
-        <v>10</v>
-      </c>
-      <c r="E229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s">
-        <v>13</v>
-      </c>
-      <c r="H229" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B230" t="s">
         <v>9</v>
@@ -4195,126 +4174,126 @@
       <c r="E230" t="s">
         <v>11</v>
       </c>
+      <c r="F230" t="s">
+        <v>69</v>
+      </c>
       <c r="G230" t="s">
         <v>13</v>
       </c>
       <c r="H230" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B231" t="s">
-        <v>21</v>
-      </c>
-      <c r="C231" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
         <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B232" t="s">
-        <v>84</v>
-      </c>
-      <c r="C232" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
         <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B233" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="D233" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E233" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234" t="s">
+        <v>84</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>84</v>
+      </c>
+      <c r="C235" t="s">
+        <v>22</v>
+      </c>
+      <c r="D235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>20</v>
       </c>
-      <c r="B234" t="s">
-        <v>84</v>
-      </c>
-      <c r="C234" t="s">
-        <v>22</v>
-      </c>
-      <c r="D234" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="B236" t="s">
+        <v>84</v>
+      </c>
+      <c r="C236" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>94</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" t="s">
-        <v>10</v>
-      </c>
-      <c r="E237" t="s">
-        <v>11</v>
-      </c>
-      <c r="F237" t="s">
-        <v>69</v>
-      </c>
-      <c r="G237" t="s">
-        <v>13</v>
-      </c>
-      <c r="H237" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>48</v>
-      </c>
-      <c r="B238" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" t="s">
-        <v>10</v>
-      </c>
-      <c r="E238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" t="s">
-        <v>13</v>
-      </c>
-      <c r="H238" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B239" t="s">
         <v>9</v>
@@ -4325,109 +4304,109 @@
       <c r="E239" t="s">
         <v>11</v>
       </c>
+      <c r="F239" t="s">
+        <v>69</v>
+      </c>
       <c r="G239" t="s">
         <v>13</v>
       </c>
       <c r="H239" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B240" t="s">
-        <v>84</v>
-      </c>
-      <c r="C240" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
         <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>84</v>
-      </c>
-      <c r="C241" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E241" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>84</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
+        <v>84</v>
+      </c>
+      <c r="C243" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>20</v>
       </c>
-      <c r="B242" t="s">
-        <v>84</v>
-      </c>
-      <c r="C242" t="s">
-        <v>22</v>
-      </c>
-      <c r="D242" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="B244" t="s">
+        <v>84</v>
+      </c>
+      <c r="C244" t="s">
+        <v>22</v>
+      </c>
+      <c r="D244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>99</v>
-      </c>
-      <c r="B245" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245" t="s">
-        <v>10</v>
-      </c>
-      <c r="E245" t="s">
-        <v>11</v>
-      </c>
-      <c r="F245" t="s">
-        <v>69</v>
-      </c>
-      <c r="G245" t="s">
-        <v>13</v>
-      </c>
-      <c r="H245" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>48</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
-      <c r="D246" t="s">
-        <v>10</v>
-      </c>
-      <c r="E246" t="s">
-        <v>11</v>
-      </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
@@ -4438,16 +4417,19 @@
       <c r="E247" t="s">
         <v>11</v>
       </c>
+      <c r="F247" t="s">
+        <v>69</v>
+      </c>
       <c r="G247" t="s">
         <v>13</v>
       </c>
       <c r="H247" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B248" t="s">
         <v>9</v>
@@ -4462,105 +4444,102 @@
         <v>13</v>
       </c>
       <c r="H248" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B249" t="s">
-        <v>84</v>
-      </c>
-      <c r="C249" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D249" t="s">
         <v>10</v>
       </c>
       <c r="E249" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G249" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B250" t="s">
-        <v>84</v>
-      </c>
-      <c r="C250" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>84</v>
+      </c>
+      <c r="C251" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>19</v>
+      </c>
+      <c r="B252" t="s">
+        <v>84</v>
+      </c>
+      <c r="C252" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>20</v>
       </c>
-      <c r="B251" t="s">
-        <v>84</v>
-      </c>
-      <c r="C251" t="s">
-        <v>22</v>
-      </c>
-      <c r="D251" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="B253" t="s">
+        <v>84</v>
+      </c>
+      <c r="C253" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>132</v>
-      </c>
-      <c r="B254" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" t="s">
-        <v>10</v>
-      </c>
-      <c r="E254" t="s">
-        <v>11</v>
-      </c>
-      <c r="F254" t="s">
-        <v>69</v>
-      </c>
-      <c r="G254" t="s">
-        <v>13</v>
-      </c>
-      <c r="H254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>74</v>
-      </c>
-      <c r="B255" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" t="s">
-        <v>10</v>
-      </c>
-      <c r="E255" t="s">
-        <v>11</v>
-      </c>
-      <c r="G255" t="s">
-        <v>13</v>
-      </c>
-      <c r="H255" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
@@ -4571,16 +4550,19 @@
       <c r="E256" t="s">
         <v>11</v>
       </c>
+      <c r="F256" t="s">
+        <v>69</v>
+      </c>
       <c r="G256" t="s">
         <v>13</v>
       </c>
       <c r="H256" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B257" t="s">
         <v>9</v>
@@ -4595,105 +4577,102 @@
         <v>13</v>
       </c>
       <c r="H257" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B258" t="s">
-        <v>84</v>
-      </c>
-      <c r="C258" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
         <v>10</v>
       </c>
       <c r="E258" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B259" t="s">
-        <v>84</v>
-      </c>
-      <c r="C259" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="G259" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>84</v>
+      </c>
+      <c r="C260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>19</v>
+      </c>
+      <c r="B261" t="s">
+        <v>84</v>
+      </c>
+      <c r="C261" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>20</v>
       </c>
-      <c r="B260" t="s">
-        <v>84</v>
-      </c>
-      <c r="C260" t="s">
-        <v>22</v>
-      </c>
-      <c r="D260" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="B262" t="s">
+        <v>84</v>
+      </c>
+      <c r="C262" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>105</v>
-      </c>
-      <c r="B263" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263" t="s">
-        <v>10</v>
-      </c>
-      <c r="E263" t="s">
-        <v>11</v>
-      </c>
-      <c r="F263" t="s">
-        <v>69</v>
-      </c>
-      <c r="G263" t="s">
-        <v>13</v>
-      </c>
-      <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>48</v>
-      </c>
-      <c r="B264" t="s">
-        <v>9</v>
-      </c>
-      <c r="D264" t="s">
-        <v>10</v>
-      </c>
-      <c r="E264" t="s">
-        <v>11</v>
-      </c>
-      <c r="G264" t="s">
-        <v>13</v>
-      </c>
-      <c r="H264" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
@@ -4704,125 +4683,168 @@
       <c r="E265" t="s">
         <v>11</v>
       </c>
+      <c r="F265" t="s">
+        <v>69</v>
+      </c>
       <c r="G265" t="s">
         <v>13</v>
       </c>
       <c r="H265" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B266" t="s">
-        <v>76</v>
-      </c>
-      <c r="C266" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D266" t="s">
         <v>10</v>
       </c>
       <c r="E266" t="s">
         <v>11</v>
+      </c>
+      <c r="G266" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>84</v>
-      </c>
-      <c r="C267" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D267" t="s">
         <v>10</v>
       </c>
       <c r="E267" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="G267" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B268" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D268" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>84</v>
+      </c>
+      <c r="C269" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>19</v>
+      </c>
+      <c r="B270" t="s">
+        <v>84</v>
+      </c>
+      <c r="C270" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>20</v>
       </c>
-      <c r="B269" t="s">
-        <v>84</v>
-      </c>
-      <c r="C269" t="s">
-        <v>22</v>
-      </c>
-      <c r="D269" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="B271" t="s">
+        <v>84</v>
+      </c>
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>17</v>
-      </c>
-      <c r="B272" t="s">
-        <v>21</v>
-      </c>
-      <c r="C272">
-        <v>128</v>
-      </c>
-      <c r="D272" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>110</v>
-      </c>
-      <c r="B273" t="s">
-        <v>21</v>
-      </c>
-      <c r="C273">
-        <v>255</v>
-      </c>
-      <c r="D273" t="s">
-        <v>10</v>
-      </c>
-      <c r="E273" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>17</v>
+      </c>
+      <c r="B274" t="s">
+        <v>21</v>
+      </c>
+      <c r="C274">
+        <v>128</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>110</v>
+      </c>
+      <c r="B275" t="s">
+        <v>21</v>
+      </c>
+      <c r="C275">
+        <v>255</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>18</v>
       </c>
-      <c r="B274" t="s">
-        <v>84</v>
-      </c>
-      <c r="D274" t="s">
-        <v>10</v>
-      </c>
-      <c r="E274" t="s">
+      <c r="B276" t="s">
+        <v>84</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" t="s">
         <v>26</v>
       </c>
     </row>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="172">
   <si>
     <t xml:space="preserve">Table admin</t>
   </si>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">approval_status</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,2 - APPROVED, PENDING, DECLINED</t>
+    <t xml:space="preserve">0,1,2 – PENDING, APPROVED, DECLINED</t>
   </si>
   <si>
     <t xml:space="preserve">PENDING</t>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t xml:space="preserve">published_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3 – pending, approved, declined, draft</t>
   </si>
   <si>
     <t xml:space="preserve">Table story_media</t>
@@ -716,10 +719,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A218" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E233" activeCellId="0" sqref="233:233"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C163" activeCellId="0" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -729,7 +732,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
@@ -3091,32 +3094,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>18</v>
@@ -3124,201 +3118,189 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="B167" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G168" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="0" t="n">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>255</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="B177" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G178" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H179" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>31</v>
@@ -3329,171 +3311,171 @@
       <c r="E180" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F180" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="G180" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B188" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="B190" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H191" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H192" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,145 +3483,154 @@
         <v>139</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C193" s="0" t="n">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E195" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B198" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="B200" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H201" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C202" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D202" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C203" s="0" t="n">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E203" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,7 +3641,7 @@
         <v>17</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>11</v>
@@ -3661,10 +3652,13 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>128</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>11</v>
@@ -3675,226 +3669,226 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E206" s="0" t="n">
-        <v>0</v>
+      <c r="E206" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E207" s="0" t="s">
+      <c r="B209" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G210" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H210" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E212" s="0" t="n">
-        <v>0</v>
+      <c r="D212" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C213" s="0" t="n">
-        <v>300</v>
+      <c r="C213" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B217" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="B219" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G220" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="H220" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C221" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E222" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H222" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>17</v>
@@ -3903,125 +3897,113 @@
         <v>255</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E224" s="0" t="n">
-        <v>1</v>
+      <c r="E224" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>255</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B227" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="B229" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G230" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H230" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H231" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>31</v>
@@ -4032,137 +4014,137 @@
       <c r="E232" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F232" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="G232" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B237" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="B239" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F240" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G240" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H240" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G241" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>31</v>
@@ -4173,104 +4155,104 @@
       <c r="E242" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F242" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="G242" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G243" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B245" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="B247" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G248" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H248" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G249" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H249" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,16 +4268,19 @@
       <c r="E250" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F250" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="G250" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>31</v>
@@ -4310,105 +4295,102 @@
         <v>14</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G252" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B254" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="B256" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F257" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G257" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H257" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G258" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H258" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>31</v>
@@ -4419,16 +4401,19 @@
       <c r="E259" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F259" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="G259" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>31</v>
@@ -4443,105 +4428,102 @@
         <v>14</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B263" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="B265" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G266" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H267" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>31</v>
@@ -4552,125 +4534,168 @@
       <c r="E268" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F268" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="G268" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E269" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G269" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H269" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G270" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H270" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B272" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C275" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E275" s="0" t="s">
-        <v>12</v>
+      <c r="B274" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="A276" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C276" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E276" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B277" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E277" s="0" t="s">
+      <c r="B279" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="0" t="s">
         <v>26</v>
       </c>
     </row>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="172">
   <si>
     <t xml:space="preserve">Table admin</t>
   </si>
@@ -721,8 +721,8 @@
   </sheetPr>
   <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C163" activeCellId="0" sqref="C163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C178" activeCellId="0" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2355,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,8 +2376,8 @@
       <c r="B117" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="0" t="n">
-        <v>255</v>
+      <c r="C117" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>18</v>
@@ -2501,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,7 +2512,7 @@
         <v>17</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,8 +2522,8 @@
       <c r="B128" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="0" t="n">
-        <v>255</v>
+      <c r="C128" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>18</v>
@@ -3228,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,8 +3238,8 @@
       <c r="B174" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C174" s="0" t="n">
-        <v>255</v>
+      <c r="C174" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>18</v>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="174">
   <si>
     <t xml:space="preserve">Table admin</t>
   </si>
@@ -169,6 +169,12 @@
     <t xml:space="preserve">linked_in_url</t>
   </si>
   <si>
+    <t xml:space="preserve">availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2,3 - daily, weekly, week-end, monthly</t>
+  </si>
+  <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
@@ -292,9 +298,6 @@
     <t xml:space="preserve">mission_availability</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,2,3 - daily, weekly, week-end, monthly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table mission_application</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">0,1,2,3 – pending, approved, declined, draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_views</t>
   </si>
   <si>
     <t xml:space="preserve">Table story_media</t>
@@ -719,17 +725,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C178" activeCellId="0" sqref="C178"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
@@ -1163,60 +1169,60 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>255</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>255</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>26</v>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>24</v>
@@ -1225,57 +1231,51 @@
         <v>25</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
+      <c r="B32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>15</v>
+      <c r="A34" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>11</v>
@@ -1290,122 +1290,128 @@
         <v>14</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C38" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D38" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>55</v>
+      <c r="B40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>15</v>
+      <c r="A42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>12</v>
@@ -1413,80 +1419,71 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C46" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D46" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>58</v>
+      <c r="B48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>15</v>
+      <c r="A50" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>11</v>
@@ -1495,123 +1492,129 @@
         <v>12</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D52" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
+      <c r="E52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>26</v>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C54" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D54" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
+      <c r="B56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>15</v>
+      <c r="A58" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="D59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F59" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="G59" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C60" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="D60" s="0" t="s">
         <v>11</v>
       </c>
@@ -1622,79 +1625,76 @@
         <v>14</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C62" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D62" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
+      <c r="B64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>15</v>
+      <c r="A66" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>31</v>
@@ -1705,16 +1705,19 @@
       <c r="E67" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F67" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="G67" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>31</v>
@@ -1729,74 +1732,71 @@
         <v>14</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C70" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D70" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
+      <c r="B72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,10 +1804,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>11</v>
@@ -1816,96 +1813,99 @@
         <v>12</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D76" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>1</v>
+      <c r="E76" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>26</v>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C78" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D78" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>74</v>
+      <c r="B80" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>15</v>
+      <c r="A82" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>31</v>
@@ -1916,16 +1916,19 @@
       <c r="E83" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F83" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="G83" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>31</v>
@@ -1940,15 +1943,15 @@
         <v>14</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>11</v>
@@ -1960,37 +1963,49 @@
         <v>14</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>37</v>
@@ -1998,30 +2013,24 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>12</v>
@@ -2029,13 +2038,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2055,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>18</v>
@@ -2051,38 +2063,38 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D93" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>18</v>
@@ -2090,49 +2102,43 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>26</v>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>24</v>
@@ -2141,54 +2147,48 @@
         <v>25</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>91</v>
+      <c r="B101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>31</v>
@@ -2199,16 +2199,19 @@
       <c r="E104" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F104" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G104" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>31</v>
@@ -2223,18 +2226,27 @@
         <v>14</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,38 +2254,32 @@
         <v>95</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>24</v>
@@ -2282,54 +2288,48 @@
         <v>25</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>98</v>
+      <c r="B111" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>31</v>
@@ -2340,22 +2340,34 @@
       <c r="E114" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F114" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G114" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="0" t="n">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +2378,7 @@
         <v>17</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,14 +2388,8 @@
       <c r="B117" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>12</v>
+      <c r="C117" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,35 +2397,35 @@
         <v>103</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>24</v>
@@ -2428,54 +2434,48 @@
         <v>25</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>105</v>
+      <c r="B122" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>31</v>
@@ -2486,22 +2486,34 @@
       <c r="E125" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F125" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G125" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,36 +2534,30 @@
       <c r="B128" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>12</v>
+      <c r="C128" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>24</v>
@@ -2560,94 +2566,91 @@
         <v>25</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+      <c r="B132" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C135" s="3" t="n">
-        <v>255</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>255</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>24</v>
@@ -2664,16 +2667,18 @@
         <v>25</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>24</v>
@@ -2690,19 +2695,25 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -2712,32 +2723,20 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>31</v>
@@ -2749,17 +2748,19 @@
       <c r="E142" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G142" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>31</v>
@@ -2776,32 +2777,34 @@
         <v>14</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>24</v>
@@ -2810,16 +2813,18 @@
         <v>25</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>24</v>
@@ -2836,19 +2841,25 @@
       <c r="H146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="A147" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -2858,32 +2869,20 @@
       <c r="H148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>31</v>
@@ -2895,17 +2894,19 @@
       <c r="E150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G150" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>31</v>
@@ -2922,32 +2923,34 @@
         <v>14</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+      <c r="G152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>24</v>
@@ -2956,16 +2959,18 @@
         <v>25</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>24</v>
@@ -2981,37 +2986,32 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>15</v>
+      <c r="A157" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>31</v>
@@ -3022,16 +3022,19 @@
       <c r="E158" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F158" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G158" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>31</v>
@@ -3046,166 +3049,154 @@
         <v>14</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B162" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D162" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>122</v>
+      <c r="D163" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B164" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D164" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D165" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G170" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" s="0" t="s">
-        <v>15</v>
+      <c r="B169" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3214,21 +3205,42 @@
         <v>126</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="0" t="n">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C173" s="0" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,112 +3250,91 @@
       <c r="B174" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C174" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>12</v>
+      <c r="C174" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G180" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" s="0" t="s">
-        <v>15</v>
+      <c r="B179" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H181" s="0" t="s">
-        <v>69</v>
+      <c r="A181" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>31</v>
@@ -3354,199 +3345,214 @@
       <c r="E182" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F182" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="G182" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B186" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="D186" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G193" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" s="0" t="s">
-        <v>15</v>
+      <c r="B192" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H194" s="0" t="s">
-        <v>69</v>
+      <c r="A194" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C195" s="0" t="n">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,128 +3560,122 @@
         <v>142</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E197" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D203" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G203" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H203" s="0" t="s">
-        <v>15</v>
+      <c r="B202" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C204" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D204" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C205" s="0" t="n">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>11</v>
@@ -3686,10 +3686,13 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>128</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>11</v>
@@ -3700,81 +3703,72 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E208" s="0" t="n">
-        <v>0</v>
+      <c r="E208" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B209" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" s="0" t="s">
+      <c r="B211" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G212" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H212" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,142 +3778,151 @@
       <c r="B214" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E214" s="0" t="n">
-        <v>0</v>
+      <c r="D214" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C215" s="0" t="n">
-        <v>300</v>
+      <c r="C215" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G222" s="0" t="s">
+      <c r="B221" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="H222" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C223" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H224" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>17</v>
@@ -3928,125 +3931,113 @@
         <v>255</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E226" s="0" t="n">
-        <v>1</v>
+      <c r="E226" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>255</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B229" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F232" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G232" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H232" s="0" t="s">
-        <v>15</v>
+      <c r="B231" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H233" s="0" t="s">
-        <v>69</v>
+      <c r="A233" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>31</v>
@@ -4057,137 +4048,137 @@
       <c r="E234" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F234" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G234" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B239" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F242" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G242" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H242" s="0" t="s">
-        <v>15</v>
+      <c r="B241" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H243" s="0" t="s">
-        <v>69</v>
+      <c r="A243" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>31</v>
@@ -4198,109 +4189,109 @@
       <c r="E244" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F244" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G244" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H245" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H246" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B247" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F250" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G250" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H250" s="0" t="s">
-        <v>15</v>
+      <c r="B249" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G251" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H251" s="0" t="s">
-        <v>69</v>
+      <c r="A251" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>31</v>
@@ -4311,16 +4302,19 @@
       <c r="E252" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F252" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G252" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>31</v>
@@ -4335,105 +4329,102 @@
         <v>14</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G254" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B256" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F259" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G259" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H259" s="0" t="s">
-        <v>15</v>
+      <c r="B258" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G260" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H260" s="0" t="s">
-        <v>125</v>
+      <c r="A260" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>31</v>
@@ -4444,16 +4435,19 @@
       <c r="E261" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F261" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G261" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>31</v>
@@ -4468,105 +4462,102 @@
         <v>14</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B265" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G268" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H268" s="0" t="s">
-        <v>15</v>
+      <c r="B267" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G269" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H269" s="0" t="s">
-        <v>69</v>
+      <c r="A269" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>31</v>
@@ -4577,125 +4568,168 @@
       <c r="E270" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F270" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G270" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G271" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H272" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B274" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C277" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E277" s="0" t="s">
-        <v>12</v>
+      <c r="B276" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C278" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E278" s="0" t="s">
-        <v>12</v>
+      <c r="A278" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B279" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" s="0" t="s">
+      <c r="B281" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="0" t="s">
         <v>26</v>
       </c>
     </row>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="173">
   <si>
     <t xml:space="preserve">Table admin</t>
   </si>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">Table mission_timesheet</t>
   </si>
   <si>
-    <t xml:space="preserve">mission_timesheet_id</t>
+    <t xml:space="preserve">timesheet_id</t>
   </si>
   <si>
     <t xml:space="preserve">date_volunteered</t>
@@ -457,13 +457,10 @@
     <t xml:space="preserve">goal_achieved</t>
   </si>
   <si>
-    <t xml:space="preserve">Table contact_us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_us_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">Table contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">subject</t>
@@ -725,10 +722,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C207" activeCellId="0" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3667,32 +3664,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C206" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>11</v>
@@ -3706,10 +3706,7 @@
         <v>148</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C208" s="0" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>11</v>
@@ -3720,38 +3717,41 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E209" s="0" t="s">
-        <v>12</v>
+      <c r="E209" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E210" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>24</v>
@@ -3760,113 +3760,108 @@
         <v>25</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G214" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H214" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E216" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C217" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>24</v>
@@ -3875,74 +3870,77 @@
         <v>25</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B221" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
-        <v>154</v>
+      <c r="B222" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G224" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H224" s="0" t="s">
-        <v>15</v>
+      <c r="A224" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C225" s="0" t="n">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E225" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H225" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>255</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>11</v>
@@ -3953,58 +3951,55 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C227" s="0" t="n">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>255</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E229" s="0" t="s">
-        <v>26</v>
+      <c r="E229" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>24</v>
@@ -4013,54 +4008,48 @@
         <v>25</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B231" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>158</v>
+      <c r="B232" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G234" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H234" s="0" t="s">
-        <v>15</v>
+      <c r="A234" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>31</v>
@@ -4071,81 +4060,87 @@
       <c r="E235" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F235" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G235" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B236" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D236" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" s="0" t="s">
+      <c r="B237" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G237" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B237" s="0" t="s">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D237" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="D238" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>24</v>
@@ -4154,54 +4149,48 @@
         <v>25</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B241" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>161</v>
+      <c r="B242" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E244" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F244" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G244" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H244" s="0" t="s">
-        <v>15</v>
+      <c r="A244" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>31</v>
@@ -4212,16 +4201,19 @@
       <c r="E245" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F245" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G245" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>31</v>
@@ -4236,29 +4228,32 @@
         <v>14</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G247" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>24</v>
@@ -4267,54 +4262,48 @@
         <v>25</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B249" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>163</v>
+      <c r="B250" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F252" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G252" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H252" s="0" t="s">
-        <v>15</v>
+      <c r="A252" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>31</v>
@@ -4325,16 +4314,19 @@
       <c r="E253" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F253" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G253" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>31</v>
@@ -4349,12 +4341,12 @@
         <v>14</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>31</v>
@@ -4374,24 +4366,27 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>24</v>
@@ -4400,54 +4395,48 @@
         <v>25</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B258" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>167</v>
+      <c r="B259" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G261" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H261" s="0" t="s">
-        <v>15</v>
+      <c r="A261" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>31</v>
@@ -4458,16 +4447,19 @@
       <c r="E262" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F262" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G262" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>31</v>
@@ -4482,12 +4474,12 @@
         <v>14</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>31</v>
@@ -4507,24 +4499,27 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G265" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>24</v>
@@ -4533,54 +4528,48 @@
         <v>25</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B267" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>169</v>
+      <c r="B268" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E270" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G270" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H270" s="0" t="s">
-        <v>15</v>
+      <c r="A270" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>31</v>
@@ -4591,16 +4580,19 @@
       <c r="E271" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="F271" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="G271" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H271" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>31</v>
@@ -4615,46 +4607,49 @@
         <v>14</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E273" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>24</v>
@@ -4663,54 +4658,54 @@
         <v>25</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B276" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>172</v>
+      <c r="B277" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C279" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" s="0" t="s">
-        <v>12</v>
+      <c r="A279" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>11</v>
@@ -4721,15 +4716,32 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E281" s="0" t="s">
+      <c r="B282" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" s="0" t="s">
         <v>26</v>
       </c>
     </row>

--- a/DB/DB_Schema.xlsx
+++ b/DB/DB_Schema.xlsx
@@ -724,8 +724,8 @@
   </sheetPr>
   <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C207" activeCellId="0" sqref="C207"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B219" activeCellId="0" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3842,7 +3842,7 @@
         <v>17</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>11</v>
@@ -3851,7 +3851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>81</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>18</v>
